--- a/documents/外部設計書_worldMap.xlsx
+++ b/documents/外部設計書_worldMap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A-4\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2D04EDF-150B-496B-8C71-B384DD13A4B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1101F5F5-A09E-4D47-9572-AACF0540BD81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="31">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -221,6 +221,51 @@
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <t>ログイン</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>マイページ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ノート一覧</t>
+    <rPh sb="3" eb="5">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>お気に入り一覧</t>
+    <rPh sb="1" eb="2">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>検索画面</t>
+    <rPh sb="0" eb="4">
+      <t>ケンサクガメン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>検索結果画面</t>
+    <rPh sb="0" eb="4">
+      <t>ケンサクケッカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
@@ -229,7 +274,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -270,6 +315,12 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="ＭＳ ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -594,7 +645,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -651,36 +702,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -726,6 +747,36 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -753,6 +804,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2133,156 +2185,156 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="31" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31" t="s">
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31" t="s">
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="31"/>
-      <c r="AC1" s="31"/>
-      <c r="AD1" s="31"/>
-      <c r="AE1" s="31"/>
-      <c r="AF1" s="32" t="s">
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46"/>
+      <c r="Z1" s="46"/>
+      <c r="AA1" s="46"/>
+      <c r="AB1" s="46"/>
+      <c r="AC1" s="46"/>
+      <c r="AD1" s="46"/>
+      <c r="AE1" s="46"/>
+      <c r="AF1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="32"/>
-      <c r="AH1" s="39" t="s">
+      <c r="AG1" s="22"/>
+      <c r="AH1" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="AI1" s="39"/>
-      <c r="AJ1" s="39"/>
-      <c r="AK1" s="39"/>
-      <c r="AL1" s="39"/>
-      <c r="AM1" s="39"/>
-      <c r="AN1" s="40"/>
+      <c r="AI1" s="29"/>
+      <c r="AJ1" s="29"/>
+      <c r="AK1" s="29"/>
+      <c r="AL1" s="29"/>
+      <c r="AM1" s="29"/>
+      <c r="AN1" s="30"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="41" t="s">
+      <c r="A2" s="40"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41" t="s">
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="41"/>
-      <c r="V2" s="41"/>
-      <c r="W2" s="41" t="s">
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="41"/>
-      <c r="Y2" s="42">
+      <c r="X2" s="31"/>
+      <c r="Y2" s="32">
         <v>44351</v>
       </c>
-      <c r="Z2" s="41"/>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="41"/>
-      <c r="AC2" s="41"/>
-      <c r="AD2" s="41"/>
-      <c r="AE2" s="41"/>
-      <c r="AF2" s="43" t="s">
+      <c r="Z2" s="31"/>
+      <c r="AA2" s="31"/>
+      <c r="AB2" s="31"/>
+      <c r="AC2" s="31"/>
+      <c r="AD2" s="31"/>
+      <c r="AE2" s="31"/>
+      <c r="AF2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="43"/>
-      <c r="AH2" s="44">
+      <c r="AG2" s="33"/>
+      <c r="AH2" s="34">
         <v>44351</v>
       </c>
-      <c r="AI2" s="45"/>
-      <c r="AJ2" s="45"/>
-      <c r="AK2" s="45"/>
-      <c r="AL2" s="45"/>
-      <c r="AM2" s="45"/>
-      <c r="AN2" s="46"/>
+      <c r="AI2" s="35"/>
+      <c r="AJ2" s="35"/>
+      <c r="AK2" s="35"/>
+      <c r="AL2" s="35"/>
+      <c r="AM2" s="35"/>
+      <c r="AN2" s="36"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="28"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="33" t="s">
+      <c r="A3" s="43"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="34"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
-      <c r="S3" s="37"/>
-      <c r="T3" s="37"/>
-      <c r="U3" s="37"/>
-      <c r="V3" s="37"/>
-      <c r="W3" s="37"/>
-      <c r="X3" s="37"/>
-      <c r="Y3" s="37"/>
-      <c r="Z3" s="37"/>
-      <c r="AA3" s="37"/>
-      <c r="AB3" s="37"/>
-      <c r="AC3" s="37"/>
-      <c r="AD3" s="37"/>
-      <c r="AE3" s="37"/>
-      <c r="AF3" s="37"/>
-      <c r="AG3" s="37"/>
-      <c r="AH3" s="37"/>
-      <c r="AI3" s="37"/>
-      <c r="AJ3" s="37"/>
-      <c r="AK3" s="37"/>
-      <c r="AL3" s="37"/>
-      <c r="AM3" s="37"/>
-      <c r="AN3" s="38"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="27"/>
+      <c r="X3" s="27"/>
+      <c r="Y3" s="27"/>
+      <c r="Z3" s="27"/>
+      <c r="AA3" s="27"/>
+      <c r="AB3" s="27"/>
+      <c r="AC3" s="27"/>
+      <c r="AD3" s="27"/>
+      <c r="AE3" s="27"/>
+      <c r="AF3" s="27"/>
+      <c r="AG3" s="27"/>
+      <c r="AH3" s="27"/>
+      <c r="AI3" s="27"/>
+      <c r="AJ3" s="27"/>
+      <c r="AK3" s="27"/>
+      <c r="AL3" s="27"/>
+      <c r="AM3" s="27"/>
+      <c r="AN3" s="28"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -6629,6 +6681,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
     <mergeCell ref="AF1:AG1"/>
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="N3:AN3"/>
@@ -6639,11 +6696,6 @@
     <mergeCell ref="Y2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:AE1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -6657,10 +6709,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D915D27-AE93-46A7-AD8E-00196DA7E36E}">
-  <dimension ref="A1:AN109"/>
+  <dimension ref="A1:AR109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:V1"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AY15" sqref="AY15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6668,162 +6720,162 @@
     <col min="1" max="16384" width="3.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:44" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="31" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31" t="s">
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31" t="s">
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="31"/>
-      <c r="AC1" s="31"/>
-      <c r="AD1" s="31"/>
-      <c r="AE1" s="31"/>
-      <c r="AF1" s="32" t="s">
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46"/>
+      <c r="Z1" s="46"/>
+      <c r="AA1" s="46"/>
+      <c r="AB1" s="46"/>
+      <c r="AC1" s="46"/>
+      <c r="AD1" s="46"/>
+      <c r="AE1" s="46"/>
+      <c r="AF1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="32"/>
-      <c r="AH1" s="39" t="s">
+      <c r="AG1" s="22"/>
+      <c r="AH1" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="AI1" s="39"/>
-      <c r="AJ1" s="39"/>
-      <c r="AK1" s="39"/>
-      <c r="AL1" s="39"/>
-      <c r="AM1" s="39"/>
-      <c r="AN1" s="40"/>
-    </row>
-    <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="41" t="s">
+      <c r="AI1" s="29"/>
+      <c r="AJ1" s="29"/>
+      <c r="AK1" s="29"/>
+      <c r="AL1" s="29"/>
+      <c r="AM1" s="29"/>
+      <c r="AN1" s="30"/>
+    </row>
+    <row r="2" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="40"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41" t="s">
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="41"/>
-      <c r="V2" s="41"/>
-      <c r="W2" s="41" t="s">
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="41"/>
-      <c r="Y2" s="42">
+      <c r="X2" s="31"/>
+      <c r="Y2" s="32">
         <v>44351</v>
       </c>
-      <c r="Z2" s="41"/>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="41"/>
-      <c r="AC2" s="41"/>
-      <c r="AD2" s="41"/>
-      <c r="AE2" s="41"/>
-      <c r="AF2" s="43" t="s">
+      <c r="Z2" s="31"/>
+      <c r="AA2" s="31"/>
+      <c r="AB2" s="31"/>
+      <c r="AC2" s="31"/>
+      <c r="AD2" s="31"/>
+      <c r="AE2" s="31"/>
+      <c r="AF2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="43"/>
-      <c r="AH2" s="44">
+      <c r="AG2" s="33"/>
+      <c r="AH2" s="34">
         <v>44351</v>
       </c>
-      <c r="AI2" s="45"/>
-      <c r="AJ2" s="45"/>
-      <c r="AK2" s="45"/>
-      <c r="AL2" s="45"/>
-      <c r="AM2" s="45"/>
-      <c r="AN2" s="46"/>
-    </row>
-    <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="28"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="33" t="s">
+      <c r="AI2" s="35"/>
+      <c r="AJ2" s="35"/>
+      <c r="AK2" s="35"/>
+      <c r="AL2" s="35"/>
+      <c r="AM2" s="35"/>
+      <c r="AN2" s="36"/>
+    </row>
+    <row r="3" spans="1:44" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="43"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="34"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
-      <c r="S3" s="37"/>
-      <c r="T3" s="37"/>
-      <c r="U3" s="37"/>
-      <c r="V3" s="37"/>
-      <c r="W3" s="37"/>
-      <c r="X3" s="37"/>
-      <c r="Y3" s="37"/>
-      <c r="Z3" s="37"/>
-      <c r="AA3" s="37"/>
-      <c r="AB3" s="37"/>
-      <c r="AC3" s="37"/>
-      <c r="AD3" s="37"/>
-      <c r="AE3" s="37"/>
-      <c r="AF3" s="37"/>
-      <c r="AG3" s="37"/>
-      <c r="AH3" s="37"/>
-      <c r="AI3" s="37"/>
-      <c r="AJ3" s="37"/>
-      <c r="AK3" s="37"/>
-      <c r="AL3" s="37"/>
-      <c r="AM3" s="37"/>
-      <c r="AN3" s="38"/>
-    </row>
-    <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="L3" s="24"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="27"/>
+      <c r="X3" s="27"/>
+      <c r="Y3" s="27"/>
+      <c r="Z3" s="27"/>
+      <c r="AA3" s="27"/>
+      <c r="AB3" s="27"/>
+      <c r="AC3" s="27"/>
+      <c r="AD3" s="27"/>
+      <c r="AE3" s="27"/>
+      <c r="AF3" s="27"/>
+      <c r="AG3" s="27"/>
+      <c r="AH3" s="27"/>
+      <c r="AI3" s="27"/>
+      <c r="AJ3" s="27"/>
+      <c r="AK3" s="27"/>
+      <c r="AL3" s="27"/>
+      <c r="AM3" s="27"/>
+      <c r="AN3" s="28"/>
+    </row>
+    <row r="4" spans="1:44" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -6865,7 +6917,7 @@
       <c r="AM5" s="4"/>
       <c r="AN5" s="5"/>
     </row>
-    <row r="6" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6"/>
       <c r="B6" s="3" t="s">
         <v>8</v>
@@ -6909,7 +6961,7 @@
       <c r="AM6" s="5"/>
       <c r="AN6" s="7"/>
     </row>
-    <row r="7" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="2"/>
@@ -6951,7 +7003,7 @@
       <c r="AM7" s="7"/>
       <c r="AN7" s="7"/>
     </row>
-    <row r="8" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="2"/>
@@ -6992,8 +7044,11 @@
       <c r="AL8" s="2"/>
       <c r="AM8" s="7"/>
       <c r="AN8" s="7"/>
-    </row>
-    <row r="9" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AQ8" s="56" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="21"/>
@@ -7034,8 +7089,11 @@
       <c r="AL9" s="21"/>
       <c r="AM9" s="7"/>
       <c r="AN9" s="7"/>
-    </row>
-    <row r="10" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AQ9" s="56" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="21"/>
@@ -7076,8 +7134,11 @@
       <c r="AL10" s="21"/>
       <c r="AM10" s="7"/>
       <c r="AN10" s="7"/>
-    </row>
-    <row r="11" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AQ10" s="56" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="21"/>
@@ -7118,8 +7179,11 @@
       <c r="AL11" s="21"/>
       <c r="AM11" s="7"/>
       <c r="AN11" s="7"/>
-    </row>
-    <row r="12" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AQ11" s="56" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="21"/>
@@ -7160,8 +7224,11 @@
       <c r="AL12" s="21"/>
       <c r="AM12" s="7"/>
       <c r="AN12" s="7"/>
-    </row>
-    <row r="13" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AQ12" s="56" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="E13" s="21"/>
@@ -7200,8 +7267,11 @@
       <c r="AL13" s="21"/>
       <c r="AM13" s="7"/>
       <c r="AN13" s="7"/>
-    </row>
-    <row r="14" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AQ13" s="56" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="E14" s="21"/>
@@ -7240,8 +7310,11 @@
       <c r="AL14" s="21"/>
       <c r="AM14" s="7"/>
       <c r="AN14" s="7"/>
-    </row>
-    <row r="15" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AQ14" s="56" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="E15" s="21"/>
@@ -7280,8 +7353,9 @@
       <c r="AL15" s="21"/>
       <c r="AM15" s="7"/>
       <c r="AN15" s="7"/>
-    </row>
-    <row r="16" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AQ15" s="56"/>
+    </row>
+    <row r="16" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="E16" s="21"/>
@@ -7320,8 +7394,9 @@
       <c r="AL16" s="21"/>
       <c r="AM16" s="7"/>
       <c r="AN16" s="7"/>
-    </row>
-    <row r="17" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AR16" s="56"/>
+    </row>
+    <row r="17" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="E17" s="21"/>
@@ -7360,8 +7435,9 @@
       <c r="AL17" s="21"/>
       <c r="AM17" s="7"/>
       <c r="AN17" s="7"/>
-    </row>
-    <row r="18" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AR17" s="56"/>
+    </row>
+    <row r="18" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="E18" s="21"/>
@@ -7400,8 +7476,9 @@
       <c r="AL18" s="21"/>
       <c r="AM18" s="7"/>
       <c r="AN18" s="7"/>
-    </row>
-    <row r="19" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AR18" s="56"/>
+    </row>
+    <row r="19" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="E19" s="21"/>
@@ -7440,8 +7517,9 @@
       <c r="AL19" s="21"/>
       <c r="AM19" s="7"/>
       <c r="AN19" s="7"/>
-    </row>
-    <row r="20" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AR19" s="56"/>
+    </row>
+    <row r="20" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="E20" s="21"/>
@@ -7481,7 +7559,7 @@
       <c r="AM20" s="7"/>
       <c r="AN20" s="7"/>
     </row>
-    <row r="21" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="E21" s="21"/>
@@ -7521,7 +7599,7 @@
       <c r="AM21" s="7"/>
       <c r="AN21" s="7"/>
     </row>
-    <row r="22" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="E22" s="21"/>
@@ -7561,7 +7639,7 @@
       <c r="AM22" s="7"/>
       <c r="AN22" s="7"/>
     </row>
-    <row r="23" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="E23" s="21"/>
@@ -7601,7 +7679,7 @@
       <c r="AM23" s="7"/>
       <c r="AN23" s="7"/>
     </row>
-    <row r="24" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="E24" s="21"/>
@@ -7641,7 +7719,7 @@
       <c r="AM24" s="7"/>
       <c r="AN24" s="7"/>
     </row>
-    <row r="25" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="E25" s="21"/>
@@ -7681,7 +7759,7 @@
       <c r="AM25" s="7"/>
       <c r="AN25" s="7"/>
     </row>
-    <row r="26" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="E26" s="21"/>
@@ -7721,7 +7799,7 @@
       <c r="AM26" s="7"/>
       <c r="AN26" s="7"/>
     </row>
-    <row r="27" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="E27" s="21"/>
@@ -7761,7 +7839,7 @@
       <c r="AM27" s="7"/>
       <c r="AN27" s="7"/>
     </row>
-    <row r="28" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="E28" s="21"/>
@@ -7801,7 +7879,7 @@
       <c r="AM28" s="7"/>
       <c r="AN28" s="7"/>
     </row>
-    <row r="29" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="E29" s="21"/>
@@ -7841,7 +7919,7 @@
       <c r="AM29" s="7"/>
       <c r="AN29" s="7"/>
     </row>
-    <row r="30" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="E30" s="21"/>
@@ -7881,7 +7959,7 @@
       <c r="AM30" s="7"/>
       <c r="AN30" s="7"/>
     </row>
-    <row r="31" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="E31" s="21"/>
@@ -7921,7 +7999,7 @@
       <c r="AM31" s="7"/>
       <c r="AN31" s="7"/>
     </row>
-    <row r="32" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="E32" s="21"/>
@@ -11205,23 +11283,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="31" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
       <c r="N1" s="48"/>
       <c r="O1" s="48"/>
       <c r="P1" s="48"/>
@@ -11242,20 +11320,20 @@
       <c r="AC1" s="48"/>
       <c r="AD1" s="48"/>
       <c r="AE1" s="48"/>
-      <c r="AF1" s="32" t="s">
+      <c r="AF1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="32"/>
-      <c r="AH1" s="39"/>
-      <c r="AI1" s="39"/>
-      <c r="AJ1" s="39"/>
-      <c r="AK1" s="39"/>
-      <c r="AL1" s="39"/>
-      <c r="AM1" s="39"/>
-      <c r="AN1" s="40"/>
+      <c r="AG1" s="22"/>
+      <c r="AH1" s="29"/>
+      <c r="AI1" s="29"/>
+      <c r="AJ1" s="29"/>
+      <c r="AK1" s="29"/>
+      <c r="AL1" s="29"/>
+      <c r="AM1" s="29"/>
+      <c r="AN1" s="30"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="25"/>
+      <c r="A2" s="40"/>
       <c r="B2" s="47"/>
       <c r="C2" s="47"/>
       <c r="D2" s="47"/>
@@ -11264,12 +11342,12 @@
       <c r="G2" s="47"/>
       <c r="H2" s="47"/>
       <c r="I2" s="47"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="41" t="s">
+      <c r="J2" s="42"/>
+      <c r="K2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
       <c r="N2" s="52"/>
       <c r="O2" s="52"/>
       <c r="P2" s="52"/>
@@ -11303,21 +11381,21 @@
       <c r="AN2" s="55"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="28"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="33" t="s">
+      <c r="A3" s="43"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="34"/>
-      <c r="M3" s="35"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="25"/>
       <c r="N3" s="49"/>
       <c r="O3" s="50"/>
       <c r="P3" s="50"/>
@@ -15826,23 +15904,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="31" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
       <c r="N1" s="48"/>
       <c r="O1" s="48"/>
       <c r="P1" s="48"/>
@@ -15863,20 +15941,20 @@
       <c r="AC1" s="48"/>
       <c r="AD1" s="48"/>
       <c r="AE1" s="48"/>
-      <c r="AF1" s="32" t="s">
+      <c r="AF1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="32"/>
-      <c r="AH1" s="39"/>
-      <c r="AI1" s="39"/>
-      <c r="AJ1" s="39"/>
-      <c r="AK1" s="39"/>
-      <c r="AL1" s="39"/>
-      <c r="AM1" s="39"/>
-      <c r="AN1" s="40"/>
+      <c r="AG1" s="22"/>
+      <c r="AH1" s="29"/>
+      <c r="AI1" s="29"/>
+      <c r="AJ1" s="29"/>
+      <c r="AK1" s="29"/>
+      <c r="AL1" s="29"/>
+      <c r="AM1" s="29"/>
+      <c r="AN1" s="30"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="25"/>
+      <c r="A2" s="40"/>
       <c r="B2" s="47"/>
       <c r="C2" s="47"/>
       <c r="D2" s="47"/>
@@ -15885,12 +15963,12 @@
       <c r="G2" s="47"/>
       <c r="H2" s="47"/>
       <c r="I2" s="47"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="41" t="s">
+      <c r="J2" s="42"/>
+      <c r="K2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
       <c r="N2" s="52"/>
       <c r="O2" s="52"/>
       <c r="P2" s="52"/>
@@ -15924,21 +16002,21 @@
       <c r="AN2" s="55"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="28"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="33" t="s">
+      <c r="A3" s="43"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="34"/>
-      <c r="M3" s="35"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="25"/>
       <c r="N3" s="49"/>
       <c r="O3" s="50"/>
       <c r="P3" s="50"/>
@@ -20447,23 +20525,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="31" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
       <c r="N1" s="48"/>
       <c r="O1" s="48"/>
       <c r="P1" s="48"/>
@@ -20484,20 +20562,20 @@
       <c r="AC1" s="48"/>
       <c r="AD1" s="48"/>
       <c r="AE1" s="48"/>
-      <c r="AF1" s="32" t="s">
+      <c r="AF1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="32"/>
-      <c r="AH1" s="39"/>
-      <c r="AI1" s="39"/>
-      <c r="AJ1" s="39"/>
-      <c r="AK1" s="39"/>
-      <c r="AL1" s="39"/>
-      <c r="AM1" s="39"/>
-      <c r="AN1" s="40"/>
+      <c r="AG1" s="22"/>
+      <c r="AH1" s="29"/>
+      <c r="AI1" s="29"/>
+      <c r="AJ1" s="29"/>
+      <c r="AK1" s="29"/>
+      <c r="AL1" s="29"/>
+      <c r="AM1" s="29"/>
+      <c r="AN1" s="30"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="25"/>
+      <c r="A2" s="40"/>
       <c r="B2" s="47"/>
       <c r="C2" s="47"/>
       <c r="D2" s="47"/>
@@ -20506,12 +20584,12 @@
       <c r="G2" s="47"/>
       <c r="H2" s="47"/>
       <c r="I2" s="47"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="41" t="s">
+      <c r="J2" s="42"/>
+      <c r="K2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
       <c r="N2" s="52"/>
       <c r="O2" s="52"/>
       <c r="P2" s="52"/>
@@ -20545,21 +20623,21 @@
       <c r="AN2" s="55"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="28"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="33" t="s">
+      <c r="A3" s="43"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="34"/>
-      <c r="M3" s="35"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="25"/>
       <c r="N3" s="49"/>
       <c r="O3" s="50"/>
       <c r="P3" s="50"/>
@@ -25068,23 +25146,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="31" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
       <c r="N1" s="48"/>
       <c r="O1" s="48"/>
       <c r="P1" s="48"/>
@@ -25105,20 +25183,20 @@
       <c r="AC1" s="48"/>
       <c r="AD1" s="48"/>
       <c r="AE1" s="48"/>
-      <c r="AF1" s="32" t="s">
+      <c r="AF1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="32"/>
-      <c r="AH1" s="39"/>
-      <c r="AI1" s="39"/>
-      <c r="AJ1" s="39"/>
-      <c r="AK1" s="39"/>
-      <c r="AL1" s="39"/>
-      <c r="AM1" s="39"/>
-      <c r="AN1" s="40"/>
+      <c r="AG1" s="22"/>
+      <c r="AH1" s="29"/>
+      <c r="AI1" s="29"/>
+      <c r="AJ1" s="29"/>
+      <c r="AK1" s="29"/>
+      <c r="AL1" s="29"/>
+      <c r="AM1" s="29"/>
+      <c r="AN1" s="30"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="25"/>
+      <c r="A2" s="40"/>
       <c r="B2" s="47"/>
       <c r="C2" s="47"/>
       <c r="D2" s="47"/>
@@ -25127,12 +25205,12 @@
       <c r="G2" s="47"/>
       <c r="H2" s="47"/>
       <c r="I2" s="47"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="41" t="s">
+      <c r="J2" s="42"/>
+      <c r="K2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
       <c r="N2" s="52"/>
       <c r="O2" s="52"/>
       <c r="P2" s="52"/>
@@ -25166,21 +25244,21 @@
       <c r="AN2" s="55"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="28"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="33" t="s">
+      <c r="A3" s="43"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="34"/>
-      <c r="M3" s="35"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="25"/>
       <c r="N3" s="49"/>
       <c r="O3" s="50"/>
       <c r="P3" s="50"/>

--- a/documents/外部設計書_worldMap.xlsx
+++ b/documents/外部設計書_worldMap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A-4\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2146FA9-BCA9-4ADC-A2EB-B6D3CD644A7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{916D2DCE-729F-4035-9381-47B544BC3F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="30" windowWidth="13410" windowHeight="10845" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15" yWindow="30" windowWidth="13410" windowHeight="10845" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ログイン" sheetId="2" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="詳細画面" sheetId="10" r:id="rId6"/>
     <sheet name="アップロード" sheetId="11" r:id="rId7"/>
     <sheet name="外部設計書 (5)" sheetId="7" r:id="rId8"/>
+    <sheet name="外部設計書 (6)" sheetId="12" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="6">アップロード!$1:$4</definedName>
@@ -28,6 +29,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="3">マイページ!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">ログイン!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="7">'外部設計書 (5)'!$1:$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="8">'外部設計書 (6)'!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">再設定!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="5">詳細画面!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">登録!$1:$4</definedName>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="37">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -775,36 +777,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -849,6 +821,36 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7426,6 +7428,69 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>258536</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>40821</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>176893</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{463BC80E-275D-4FA6-B88D-8E4DA1C8757A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="810986" y="1374321"/>
+          <a:ext cx="9256939" cy="5470072"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -7759,156 +7824,156 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="33" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33" t="s">
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33" t="s">
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="48"/>
+      <c r="V1" s="48"/>
+      <c r="W1" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33"/>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="34" t="s">
+      <c r="X1" s="48"/>
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="48"/>
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="48"/>
+      <c r="AC1" s="48"/>
+      <c r="AD1" s="48"/>
+      <c r="AE1" s="48"/>
+      <c r="AF1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="34"/>
-      <c r="AH1" s="41" t="s">
+      <c r="AG1" s="24"/>
+      <c r="AH1" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="AI1" s="41"/>
-      <c r="AJ1" s="41"/>
-      <c r="AK1" s="41"/>
-      <c r="AL1" s="41"/>
-      <c r="AM1" s="41"/>
-      <c r="AN1" s="42"/>
+      <c r="AI1" s="31"/>
+      <c r="AJ1" s="31"/>
+      <c r="AK1" s="31"/>
+      <c r="AL1" s="31"/>
+      <c r="AM1" s="31"/>
+      <c r="AN1" s="32"/>
     </row>
     <row r="2" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="27"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="43" t="s">
+      <c r="A2" s="42"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43" t="s">
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43"/>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43" t="s">
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="44">
+      <c r="X2" s="33"/>
+      <c r="Y2" s="34">
         <v>44351</v>
       </c>
-      <c r="Z2" s="43"/>
-      <c r="AA2" s="43"/>
-      <c r="AB2" s="43"/>
-      <c r="AC2" s="43"/>
-      <c r="AD2" s="43"/>
-      <c r="AE2" s="43"/>
-      <c r="AF2" s="45" t="s">
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="33"/>
+      <c r="AF2" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="45"/>
-      <c r="AH2" s="46">
+      <c r="AG2" s="35"/>
+      <c r="AH2" s="36">
         <v>44351</v>
       </c>
-      <c r="AI2" s="47"/>
-      <c r="AJ2" s="47"/>
-      <c r="AK2" s="47"/>
-      <c r="AL2" s="47"/>
-      <c r="AM2" s="47"/>
-      <c r="AN2" s="48"/>
+      <c r="AI2" s="37"/>
+      <c r="AJ2" s="37"/>
+      <c r="AK2" s="37"/>
+      <c r="AL2" s="37"/>
+      <c r="AM2" s="37"/>
+      <c r="AN2" s="38"/>
     </row>
     <row r="3" spans="1:42" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="30"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="35" t="s">
+      <c r="A3" s="45"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="36"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="39"/>
-      <c r="T3" s="39"/>
-      <c r="U3" s="39"/>
-      <c r="V3" s="39"/>
-      <c r="W3" s="39"/>
-      <c r="X3" s="39"/>
-      <c r="Y3" s="39"/>
-      <c r="Z3" s="39"/>
-      <c r="AA3" s="39"/>
-      <c r="AB3" s="39"/>
-      <c r="AC3" s="39"/>
-      <c r="AD3" s="39"/>
-      <c r="AE3" s="39"/>
-      <c r="AF3" s="39"/>
-      <c r="AG3" s="39"/>
-      <c r="AH3" s="39"/>
-      <c r="AI3" s="39"/>
-      <c r="AJ3" s="39"/>
-      <c r="AK3" s="39"/>
-      <c r="AL3" s="39"/>
-      <c r="AM3" s="39"/>
-      <c r="AN3" s="40"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="29"/>
+      <c r="X3" s="29"/>
+      <c r="Y3" s="29"/>
+      <c r="Z3" s="29"/>
+      <c r="AA3" s="29"/>
+      <c r="AB3" s="29"/>
+      <c r="AC3" s="29"/>
+      <c r="AD3" s="29"/>
+      <c r="AE3" s="29"/>
+      <c r="AF3" s="29"/>
+      <c r="AG3" s="29"/>
+      <c r="AH3" s="29"/>
+      <c r="AI3" s="29"/>
+      <c r="AJ3" s="29"/>
+      <c r="AK3" s="29"/>
+      <c r="AL3" s="29"/>
+      <c r="AM3" s="29"/>
+      <c r="AN3" s="30"/>
     </row>
     <row r="4" spans="1:42" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -12276,6 +12341,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
     <mergeCell ref="AF1:AG1"/>
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="N3:AN3"/>
@@ -12286,11 +12356,6 @@
     <mergeCell ref="Y2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:AE1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -12316,156 +12381,156 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="33" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33" t="s">
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33" t="s">
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="48"/>
+      <c r="V1" s="48"/>
+      <c r="W1" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33"/>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="34" t="s">
+      <c r="X1" s="48"/>
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="48"/>
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="48"/>
+      <c r="AC1" s="48"/>
+      <c r="AD1" s="48"/>
+      <c r="AE1" s="48"/>
+      <c r="AF1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="34"/>
-      <c r="AH1" s="41" t="s">
+      <c r="AG1" s="24"/>
+      <c r="AH1" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="AI1" s="41"/>
-      <c r="AJ1" s="41"/>
-      <c r="AK1" s="41"/>
-      <c r="AL1" s="41"/>
-      <c r="AM1" s="41"/>
-      <c r="AN1" s="42"/>
+      <c r="AI1" s="31"/>
+      <c r="AJ1" s="31"/>
+      <c r="AK1" s="31"/>
+      <c r="AL1" s="31"/>
+      <c r="AM1" s="31"/>
+      <c r="AN1" s="32"/>
     </row>
     <row r="2" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="27"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="43" t="s">
+      <c r="A2" s="42"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43" t="s">
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43"/>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43" t="s">
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="44">
+      <c r="X2" s="33"/>
+      <c r="Y2" s="34">
         <v>44351</v>
       </c>
-      <c r="Z2" s="43"/>
-      <c r="AA2" s="43"/>
-      <c r="AB2" s="43"/>
-      <c r="AC2" s="43"/>
-      <c r="AD2" s="43"/>
-      <c r="AE2" s="43"/>
-      <c r="AF2" s="45" t="s">
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="33"/>
+      <c r="AF2" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="45"/>
-      <c r="AH2" s="46">
+      <c r="AG2" s="35"/>
+      <c r="AH2" s="36">
         <v>44351</v>
       </c>
-      <c r="AI2" s="47"/>
-      <c r="AJ2" s="47"/>
-      <c r="AK2" s="47"/>
-      <c r="AL2" s="47"/>
-      <c r="AM2" s="47"/>
-      <c r="AN2" s="48"/>
+      <c r="AI2" s="37"/>
+      <c r="AJ2" s="37"/>
+      <c r="AK2" s="37"/>
+      <c r="AL2" s="37"/>
+      <c r="AM2" s="37"/>
+      <c r="AN2" s="38"/>
     </row>
     <row r="3" spans="1:44" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="30"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="35" t="s">
+      <c r="A3" s="45"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="36"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="39"/>
-      <c r="T3" s="39"/>
-      <c r="U3" s="39"/>
-      <c r="V3" s="39"/>
-      <c r="W3" s="39"/>
-      <c r="X3" s="39"/>
-      <c r="Y3" s="39"/>
-      <c r="Z3" s="39"/>
-      <c r="AA3" s="39"/>
-      <c r="AB3" s="39"/>
-      <c r="AC3" s="39"/>
-      <c r="AD3" s="39"/>
-      <c r="AE3" s="39"/>
-      <c r="AF3" s="39"/>
-      <c r="AG3" s="39"/>
-      <c r="AH3" s="39"/>
-      <c r="AI3" s="39"/>
-      <c r="AJ3" s="39"/>
-      <c r="AK3" s="39"/>
-      <c r="AL3" s="39"/>
-      <c r="AM3" s="39"/>
-      <c r="AN3" s="40"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="29"/>
+      <c r="X3" s="29"/>
+      <c r="Y3" s="29"/>
+      <c r="Z3" s="29"/>
+      <c r="AA3" s="29"/>
+      <c r="AB3" s="29"/>
+      <c r="AC3" s="29"/>
+      <c r="AD3" s="29"/>
+      <c r="AE3" s="29"/>
+      <c r="AF3" s="29"/>
+      <c r="AG3" s="29"/>
+      <c r="AH3" s="29"/>
+      <c r="AI3" s="29"/>
+      <c r="AJ3" s="29"/>
+      <c r="AK3" s="29"/>
+      <c r="AL3" s="29"/>
+      <c r="AM3" s="29"/>
+      <c r="AN3" s="30"/>
     </row>
     <row r="4" spans="1:44" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -16877,23 +16942,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="33" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
       <c r="N1" s="50" t="s">
         <v>31</v>
       </c>
@@ -16916,20 +16981,20 @@
       <c r="AC1" s="50"/>
       <c r="AD1" s="50"/>
       <c r="AE1" s="50"/>
-      <c r="AF1" s="34" t="s">
+      <c r="AF1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="34"/>
-      <c r="AH1" s="41"/>
-      <c r="AI1" s="41"/>
-      <c r="AJ1" s="41"/>
-      <c r="AK1" s="41"/>
-      <c r="AL1" s="41"/>
-      <c r="AM1" s="41"/>
-      <c r="AN1" s="42"/>
+      <c r="AG1" s="24"/>
+      <c r="AH1" s="31"/>
+      <c r="AI1" s="31"/>
+      <c r="AJ1" s="31"/>
+      <c r="AK1" s="31"/>
+      <c r="AL1" s="31"/>
+      <c r="AM1" s="31"/>
+      <c r="AN1" s="32"/>
     </row>
     <row r="2" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="27"/>
+      <c r="A2" s="42"/>
       <c r="B2" s="49"/>
       <c r="C2" s="49"/>
       <c r="D2" s="49"/>
@@ -16938,12 +17003,12 @@
       <c r="G2" s="49"/>
       <c r="H2" s="49"/>
       <c r="I2" s="49"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="43" t="s">
+      <c r="J2" s="44"/>
+      <c r="K2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
       <c r="N2" s="54"/>
       <c r="O2" s="54"/>
       <c r="P2" s="54"/>
@@ -16977,21 +17042,21 @@
       <c r="AN2" s="57"/>
     </row>
     <row r="3" spans="1:42" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="30"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="35" t="s">
+      <c r="A3" s="45"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="36"/>
-      <c r="M3" s="37"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="27"/>
       <c r="N3" s="51"/>
       <c r="O3" s="52"/>
       <c r="P3" s="52"/>
@@ -21525,23 +21590,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="33" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
       <c r="N1" s="50" t="s">
         <v>33</v>
       </c>
@@ -21564,20 +21629,20 @@
       <c r="AC1" s="50"/>
       <c r="AD1" s="50"/>
       <c r="AE1" s="50"/>
-      <c r="AF1" s="34" t="s">
+      <c r="AF1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="34"/>
-      <c r="AH1" s="41"/>
-      <c r="AI1" s="41"/>
-      <c r="AJ1" s="41"/>
-      <c r="AK1" s="41"/>
-      <c r="AL1" s="41"/>
-      <c r="AM1" s="41"/>
-      <c r="AN1" s="42"/>
+      <c r="AG1" s="24"/>
+      <c r="AH1" s="31"/>
+      <c r="AI1" s="31"/>
+      <c r="AJ1" s="31"/>
+      <c r="AK1" s="31"/>
+      <c r="AL1" s="31"/>
+      <c r="AM1" s="31"/>
+      <c r="AN1" s="32"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="27"/>
+      <c r="A2" s="42"/>
       <c r="B2" s="49"/>
       <c r="C2" s="49"/>
       <c r="D2" s="49"/>
@@ -21586,12 +21651,12 @@
       <c r="G2" s="49"/>
       <c r="H2" s="49"/>
       <c r="I2" s="49"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="43" t="s">
+      <c r="J2" s="44"/>
+      <c r="K2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
       <c r="N2" s="54"/>
       <c r="O2" s="54"/>
       <c r="P2" s="54"/>
@@ -21625,21 +21690,21 @@
       <c r="AN2" s="57"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="30"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="35" t="s">
+      <c r="A3" s="45"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="36"/>
-      <c r="M3" s="37"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="27"/>
       <c r="N3" s="51"/>
       <c r="O3" s="52"/>
       <c r="P3" s="52"/>
@@ -26149,23 +26214,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="33" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
       <c r="N1" s="50" t="s">
         <v>34</v>
       </c>
@@ -26188,20 +26253,20 @@
       <c r="AC1" s="50"/>
       <c r="AD1" s="50"/>
       <c r="AE1" s="50"/>
-      <c r="AF1" s="34" t="s">
+      <c r="AF1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="34"/>
-      <c r="AH1" s="41"/>
-      <c r="AI1" s="41"/>
-      <c r="AJ1" s="41"/>
-      <c r="AK1" s="41"/>
-      <c r="AL1" s="41"/>
-      <c r="AM1" s="41"/>
-      <c r="AN1" s="42"/>
+      <c r="AG1" s="24"/>
+      <c r="AH1" s="31"/>
+      <c r="AI1" s="31"/>
+      <c r="AJ1" s="31"/>
+      <c r="AK1" s="31"/>
+      <c r="AL1" s="31"/>
+      <c r="AM1" s="31"/>
+      <c r="AN1" s="32"/>
     </row>
     <row r="2" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="27"/>
+      <c r="A2" s="42"/>
       <c r="B2" s="49"/>
       <c r="C2" s="49"/>
       <c r="D2" s="49"/>
@@ -26210,12 +26275,12 @@
       <c r="G2" s="49"/>
       <c r="H2" s="49"/>
       <c r="I2" s="49"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="43" t="s">
+      <c r="J2" s="44"/>
+      <c r="K2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
       <c r="N2" s="54"/>
       <c r="O2" s="54"/>
       <c r="P2" s="54"/>
@@ -26249,21 +26314,21 @@
       <c r="AN2" s="57"/>
     </row>
     <row r="3" spans="1:42" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="30"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="35" t="s">
+      <c r="A3" s="45"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="36"/>
-      <c r="M3" s="37"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="27"/>
       <c r="N3" s="51" t="s">
         <v>35</v>
       </c>
@@ -30799,23 +30864,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="33" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
       <c r="N1" s="50" t="s">
         <v>36</v>
       </c>
@@ -30838,20 +30903,20 @@
       <c r="AC1" s="50"/>
       <c r="AD1" s="50"/>
       <c r="AE1" s="50"/>
-      <c r="AF1" s="34" t="s">
+      <c r="AF1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="34"/>
-      <c r="AH1" s="41"/>
-      <c r="AI1" s="41"/>
-      <c r="AJ1" s="41"/>
-      <c r="AK1" s="41"/>
-      <c r="AL1" s="41"/>
-      <c r="AM1" s="41"/>
-      <c r="AN1" s="42"/>
+      <c r="AG1" s="24"/>
+      <c r="AH1" s="31"/>
+      <c r="AI1" s="31"/>
+      <c r="AJ1" s="31"/>
+      <c r="AK1" s="31"/>
+      <c r="AL1" s="31"/>
+      <c r="AM1" s="31"/>
+      <c r="AN1" s="32"/>
     </row>
     <row r="2" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="27"/>
+      <c r="A2" s="42"/>
       <c r="B2" s="49"/>
       <c r="C2" s="49"/>
       <c r="D2" s="49"/>
@@ -30860,12 +30925,12 @@
       <c r="G2" s="49"/>
       <c r="H2" s="49"/>
       <c r="I2" s="49"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="43" t="s">
+      <c r="J2" s="44"/>
+      <c r="K2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
       <c r="N2" s="54"/>
       <c r="O2" s="54"/>
       <c r="P2" s="54"/>
@@ -30899,21 +30964,21 @@
       <c r="AN2" s="57"/>
     </row>
     <row r="3" spans="1:42" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="30"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="35" t="s">
+      <c r="A3" s="45"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="36"/>
-      <c r="M3" s="37"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="27"/>
       <c r="N3" s="51" t="s">
         <v>35</v>
       </c>
@@ -35439,7 +35504,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7737AC87-CB72-4BED-81ED-8E0111C0ECEB}">
   <dimension ref="A1:AP109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AM17" sqref="AM17"/>
     </sheetView>
   </sheetViews>
@@ -35449,23 +35514,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="33" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
       <c r="N1" s="50" t="s">
         <v>34</v>
       </c>
@@ -35488,20 +35553,20 @@
       <c r="AC1" s="50"/>
       <c r="AD1" s="50"/>
       <c r="AE1" s="50"/>
-      <c r="AF1" s="34" t="s">
+      <c r="AF1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="34"/>
-      <c r="AH1" s="41"/>
-      <c r="AI1" s="41"/>
-      <c r="AJ1" s="41"/>
-      <c r="AK1" s="41"/>
-      <c r="AL1" s="41"/>
-      <c r="AM1" s="41"/>
-      <c r="AN1" s="42"/>
+      <c r="AG1" s="24"/>
+      <c r="AH1" s="31"/>
+      <c r="AI1" s="31"/>
+      <c r="AJ1" s="31"/>
+      <c r="AK1" s="31"/>
+      <c r="AL1" s="31"/>
+      <c r="AM1" s="31"/>
+      <c r="AN1" s="32"/>
     </row>
     <row r="2" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="27"/>
+      <c r="A2" s="42"/>
       <c r="B2" s="49"/>
       <c r="C2" s="49"/>
       <c r="D2" s="49"/>
@@ -35510,12 +35575,12 @@
       <c r="G2" s="49"/>
       <c r="H2" s="49"/>
       <c r="I2" s="49"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="43" t="s">
+      <c r="J2" s="44"/>
+      <c r="K2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
       <c r="N2" s="54"/>
       <c r="O2" s="54"/>
       <c r="P2" s="54"/>
@@ -35549,21 +35614,21 @@
       <c r="AN2" s="57"/>
     </row>
     <row r="3" spans="1:42" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="30"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="35" t="s">
+      <c r="A3" s="45"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="36"/>
-      <c r="M3" s="37"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="27"/>
       <c r="N3" s="51" t="s">
         <v>35</v>
       </c>
@@ -40099,23 +40164,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="33" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
       <c r="N1" s="50"/>
       <c r="O1" s="50"/>
       <c r="P1" s="50"/>
@@ -40136,20 +40201,20 @@
       <c r="AC1" s="50"/>
       <c r="AD1" s="50"/>
       <c r="AE1" s="50"/>
-      <c r="AF1" s="34" t="s">
+      <c r="AF1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="34"/>
-      <c r="AH1" s="41"/>
-      <c r="AI1" s="41"/>
-      <c r="AJ1" s="41"/>
-      <c r="AK1" s="41"/>
-      <c r="AL1" s="41"/>
-      <c r="AM1" s="41"/>
-      <c r="AN1" s="42"/>
+      <c r="AG1" s="24"/>
+      <c r="AH1" s="31"/>
+      <c r="AI1" s="31"/>
+      <c r="AJ1" s="31"/>
+      <c r="AK1" s="31"/>
+      <c r="AL1" s="31"/>
+      <c r="AM1" s="31"/>
+      <c r="AN1" s="32"/>
     </row>
     <row r="2" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="27"/>
+      <c r="A2" s="42"/>
       <c r="B2" s="49"/>
       <c r="C2" s="49"/>
       <c r="D2" s="49"/>
@@ -40158,12 +40223,12 @@
       <c r="G2" s="49"/>
       <c r="H2" s="49"/>
       <c r="I2" s="49"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="43" t="s">
+      <c r="J2" s="44"/>
+      <c r="K2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
       <c r="N2" s="54"/>
       <c r="O2" s="54"/>
       <c r="P2" s="54"/>
@@ -40197,21 +40262,21 @@
       <c r="AN2" s="57"/>
     </row>
     <row r="3" spans="1:42" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="30"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="35" t="s">
+      <c r="A3" s="45"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="36"/>
-      <c r="M3" s="37"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="27"/>
       <c r="N3" s="51"/>
       <c r="O3" s="52"/>
       <c r="P3" s="52"/>
@@ -44729,4 +44794,4650 @@
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAD36257-8492-4594-A239-08A7E78A213B}">
+  <dimension ref="A1:AP109"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AR21" sqref="AR21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="3.625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:42" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="50"/>
+      <c r="AA1" s="50"/>
+      <c r="AB1" s="50"/>
+      <c r="AC1" s="50"/>
+      <c r="AD1" s="50"/>
+      <c r="AE1" s="50"/>
+      <c r="AF1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG1" s="24"/>
+      <c r="AH1" s="31"/>
+      <c r="AI1" s="31"/>
+      <c r="AJ1" s="31"/>
+      <c r="AK1" s="31"/>
+      <c r="AL1" s="31"/>
+      <c r="AM1" s="31"/>
+      <c r="AN1" s="32"/>
+    </row>
+    <row r="2" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="42"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+      <c r="V2" s="54"/>
+      <c r="W2" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="X2" s="54"/>
+      <c r="Y2" s="54"/>
+      <c r="Z2" s="54"/>
+      <c r="AA2" s="54"/>
+      <c r="AB2" s="54"/>
+      <c r="AC2" s="54"/>
+      <c r="AD2" s="54"/>
+      <c r="AE2" s="54"/>
+      <c r="AF2" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG2" s="55"/>
+      <c r="AH2" s="56"/>
+      <c r="AI2" s="56"/>
+      <c r="AJ2" s="56"/>
+      <c r="AK2" s="56"/>
+      <c r="AL2" s="56"/>
+      <c r="AM2" s="56"/>
+      <c r="AN2" s="57"/>
+    </row>
+    <row r="3" spans="1:42" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="45"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" s="26"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="52"/>
+      <c r="S3" s="52"/>
+      <c r="T3" s="52"/>
+      <c r="U3" s="52"/>
+      <c r="V3" s="52"/>
+      <c r="W3" s="52"/>
+      <c r="X3" s="52"/>
+      <c r="Y3" s="52"/>
+      <c r="Z3" s="52"/>
+      <c r="AA3" s="52"/>
+      <c r="AB3" s="52"/>
+      <c r="AC3" s="52"/>
+      <c r="AD3" s="52"/>
+      <c r="AE3" s="52"/>
+      <c r="AF3" s="52"/>
+      <c r="AG3" s="52"/>
+      <c r="AH3" s="52"/>
+      <c r="AI3" s="52"/>
+      <c r="AJ3" s="52"/>
+      <c r="AK3" s="52"/>
+      <c r="AL3" s="52"/>
+      <c r="AM3" s="52"/>
+      <c r="AN3" s="53"/>
+    </row>
+    <row r="4" spans="1:42" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="4"/>
+      <c r="AC5" s="4"/>
+      <c r="AD5" s="4"/>
+      <c r="AE5" s="4"/>
+      <c r="AF5" s="4"/>
+      <c r="AG5" s="4"/>
+      <c r="AH5" s="4"/>
+      <c r="AI5" s="4"/>
+      <c r="AJ5" s="4"/>
+      <c r="AK5" s="4"/>
+      <c r="AL5" s="4"/>
+      <c r="AM5" s="4"/>
+      <c r="AN5" s="5"/>
+    </row>
+    <row r="6" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="6"/>
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="4"/>
+      <c r="AD6" s="4"/>
+      <c r="AE6" s="4"/>
+      <c r="AF6" s="4"/>
+      <c r="AG6" s="4"/>
+      <c r="AH6" s="4"/>
+      <c r="AI6" s="4"/>
+      <c r="AJ6" s="4"/>
+      <c r="AK6" s="4"/>
+      <c r="AL6" s="4"/>
+      <c r="AM6" s="5"/>
+      <c r="AN6" s="7"/>
+    </row>
+    <row r="7" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="8"/>
+      <c r="AD7" s="8"/>
+      <c r="AE7" s="8"/>
+      <c r="AF7" s="8"/>
+      <c r="AG7" s="8"/>
+      <c r="AH7" s="8"/>
+      <c r="AI7" s="8"/>
+      <c r="AJ7" s="8"/>
+      <c r="AK7" s="8"/>
+      <c r="AL7" s="8"/>
+      <c r="AM7" s="7"/>
+      <c r="AN7" s="7"/>
+      <c r="AP7" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="8"/>
+      <c r="AC8" s="8"/>
+      <c r="AD8" s="8"/>
+      <c r="AE8" s="8"/>
+      <c r="AF8" s="8"/>
+      <c r="AG8" s="8"/>
+      <c r="AH8" s="8"/>
+      <c r="AI8" s="8"/>
+      <c r="AJ8" s="8"/>
+      <c r="AK8" s="8"/>
+      <c r="AL8" s="8"/>
+      <c r="AM8" s="7"/>
+      <c r="AN8" s="7"/>
+      <c r="AP8" s="22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="9"/>
+      <c r="AB9" s="9"/>
+      <c r="AC9" s="9"/>
+      <c r="AD9" s="9"/>
+      <c r="AE9" s="9"/>
+      <c r="AF9" s="9"/>
+      <c r="AG9" s="9"/>
+      <c r="AH9" s="9"/>
+      <c r="AI9" s="9"/>
+      <c r="AJ9" s="9"/>
+      <c r="AK9" s="9"/>
+      <c r="AL9" s="9"/>
+      <c r="AM9" s="7"/>
+      <c r="AN9" s="7"/>
+      <c r="AP9" s="22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
+      <c r="X10" s="9"/>
+      <c r="Y10" s="9"/>
+      <c r="Z10" s="9"/>
+      <c r="AA10" s="9"/>
+      <c r="AB10" s="9"/>
+      <c r="AC10" s="9"/>
+      <c r="AD10" s="9"/>
+      <c r="AE10" s="9"/>
+      <c r="AF10" s="9"/>
+      <c r="AG10" s="9"/>
+      <c r="AH10" s="9"/>
+      <c r="AI10" s="9"/>
+      <c r="AJ10" s="9"/>
+      <c r="AK10" s="9"/>
+      <c r="AL10" s="9"/>
+      <c r="AM10" s="7"/>
+      <c r="AN10" s="7"/>
+      <c r="AP10" s="22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="9"/>
+      <c r="Y11" s="9"/>
+      <c r="Z11" s="9"/>
+      <c r="AA11" s="9"/>
+      <c r="AB11" s="9"/>
+      <c r="AC11" s="9"/>
+      <c r="AD11" s="9"/>
+      <c r="AE11" s="9"/>
+      <c r="AF11" s="9"/>
+      <c r="AG11" s="9"/>
+      <c r="AH11" s="9"/>
+      <c r="AI11" s="9"/>
+      <c r="AJ11" s="9"/>
+      <c r="AK11" s="9"/>
+      <c r="AL11" s="9"/>
+      <c r="AM11" s="7"/>
+      <c r="AN11" s="7"/>
+      <c r="AP11" s="22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="9"/>
+      <c r="AA12" s="9"/>
+      <c r="AB12" s="9"/>
+      <c r="AC12" s="9"/>
+      <c r="AD12" s="9"/>
+      <c r="AE12" s="9"/>
+      <c r="AF12" s="9"/>
+      <c r="AG12" s="9"/>
+      <c r="AH12" s="9"/>
+      <c r="AI12" s="9"/>
+      <c r="AJ12" s="9"/>
+      <c r="AK12" s="9"/>
+      <c r="AL12" s="9"/>
+      <c r="AM12" s="7"/>
+      <c r="AN12" s="7"/>
+      <c r="AP12" s="22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="9"/>
+      <c r="X13" s="9"/>
+      <c r="Y13" s="9"/>
+      <c r="Z13" s="9"/>
+      <c r="AA13" s="9"/>
+      <c r="AB13" s="9"/>
+      <c r="AC13" s="9"/>
+      <c r="AD13" s="9"/>
+      <c r="AE13" s="9"/>
+      <c r="AF13" s="9"/>
+      <c r="AG13" s="9"/>
+      <c r="AH13" s="9"/>
+      <c r="AI13" s="9"/>
+      <c r="AJ13" s="9"/>
+      <c r="AK13" s="9"/>
+      <c r="AL13" s="9"/>
+      <c r="AM13" s="7"/>
+      <c r="AN13" s="7"/>
+      <c r="AP13" s="22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="9"/>
+      <c r="AA14" s="9"/>
+      <c r="AB14" s="9"/>
+      <c r="AC14" s="9"/>
+      <c r="AD14" s="9"/>
+      <c r="AE14" s="9"/>
+      <c r="AF14" s="9"/>
+      <c r="AG14" s="9"/>
+      <c r="AH14" s="9"/>
+      <c r="AI14" s="9"/>
+      <c r="AJ14" s="9"/>
+      <c r="AK14" s="9"/>
+      <c r="AL14" s="9"/>
+      <c r="AM14" s="7"/>
+      <c r="AN14" s="7"/>
+      <c r="AP14" s="22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="9"/>
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="9"/>
+      <c r="AA15" s="9"/>
+      <c r="AB15" s="9"/>
+      <c r="AC15" s="9"/>
+      <c r="AD15" s="9"/>
+      <c r="AE15" s="9"/>
+      <c r="AF15" s="9"/>
+      <c r="AG15" s="9"/>
+      <c r="AH15" s="9"/>
+      <c r="AI15" s="9"/>
+      <c r="AJ15" s="9"/>
+      <c r="AK15" s="9"/>
+      <c r="AL15" s="9"/>
+      <c r="AM15" s="7"/>
+      <c r="AN15" s="7"/>
+    </row>
+    <row r="16" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="9"/>
+      <c r="X16" s="9"/>
+      <c r="Y16" s="9"/>
+      <c r="Z16" s="9"/>
+      <c r="AA16" s="9"/>
+      <c r="AB16" s="9"/>
+      <c r="AC16" s="9"/>
+      <c r="AD16" s="9"/>
+      <c r="AE16" s="9"/>
+      <c r="AF16" s="9"/>
+      <c r="AG16" s="9"/>
+      <c r="AH16" s="9"/>
+      <c r="AI16" s="9"/>
+      <c r="AJ16" s="9"/>
+      <c r="AK16" s="9"/>
+      <c r="AL16" s="9"/>
+      <c r="AM16" s="7"/>
+      <c r="AN16" s="7"/>
+    </row>
+    <row r="17" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="9"/>
+      <c r="X17" s="9"/>
+      <c r="Y17" s="9"/>
+      <c r="Z17" s="9"/>
+      <c r="AA17" s="9"/>
+      <c r="AB17" s="9"/>
+      <c r="AC17" s="9"/>
+      <c r="AD17" s="9"/>
+      <c r="AE17" s="9"/>
+      <c r="AF17" s="9"/>
+      <c r="AG17" s="9"/>
+      <c r="AH17" s="9"/>
+      <c r="AI17" s="9"/>
+      <c r="AJ17" s="9"/>
+      <c r="AK17" s="9"/>
+      <c r="AL17" s="9"/>
+      <c r="AM17" s="7"/>
+      <c r="AN17" s="7"/>
+    </row>
+    <row r="18" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="9"/>
+      <c r="X18" s="9"/>
+      <c r="Y18" s="9"/>
+      <c r="Z18" s="9"/>
+      <c r="AA18" s="9"/>
+      <c r="AB18" s="9"/>
+      <c r="AC18" s="9"/>
+      <c r="AD18" s="9"/>
+      <c r="AE18" s="9"/>
+      <c r="AF18" s="9"/>
+      <c r="AG18" s="9"/>
+      <c r="AH18" s="9"/>
+      <c r="AI18" s="9"/>
+      <c r="AJ18" s="9"/>
+      <c r="AK18" s="9"/>
+      <c r="AL18" s="9"/>
+      <c r="AM18" s="7"/>
+      <c r="AN18" s="7"/>
+    </row>
+    <row r="19" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="9"/>
+      <c r="W19" s="9"/>
+      <c r="X19" s="9"/>
+      <c r="Y19" s="9"/>
+      <c r="Z19" s="9"/>
+      <c r="AA19" s="9"/>
+      <c r="AB19" s="9"/>
+      <c r="AC19" s="9"/>
+      <c r="AD19" s="9"/>
+      <c r="AE19" s="9"/>
+      <c r="AF19" s="9"/>
+      <c r="AG19" s="9"/>
+      <c r="AH19" s="9"/>
+      <c r="AI19" s="9"/>
+      <c r="AJ19" s="9"/>
+      <c r="AK19" s="9"/>
+      <c r="AL19" s="9"/>
+      <c r="AM19" s="7"/>
+      <c r="AN19" s="7"/>
+    </row>
+    <row r="20" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="9"/>
+      <c r="W20" s="9"/>
+      <c r="X20" s="9"/>
+      <c r="Y20" s="9"/>
+      <c r="Z20" s="9"/>
+      <c r="AA20" s="9"/>
+      <c r="AB20" s="9"/>
+      <c r="AC20" s="9"/>
+      <c r="AD20" s="9"/>
+      <c r="AE20" s="9"/>
+      <c r="AF20" s="9"/>
+      <c r="AG20" s="9"/>
+      <c r="AH20" s="9"/>
+      <c r="AI20" s="9"/>
+      <c r="AJ20" s="9"/>
+      <c r="AK20" s="9"/>
+      <c r="AL20" s="9"/>
+      <c r="AM20" s="7"/>
+      <c r="AN20" s="7"/>
+    </row>
+    <row r="21" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="9"/>
+      <c r="W21" s="9"/>
+      <c r="X21" s="9"/>
+      <c r="Y21" s="9"/>
+      <c r="Z21" s="9"/>
+      <c r="AA21" s="9"/>
+      <c r="AB21" s="9"/>
+      <c r="AC21" s="9"/>
+      <c r="AD21" s="9"/>
+      <c r="AE21" s="9"/>
+      <c r="AF21" s="9"/>
+      <c r="AG21" s="9"/>
+      <c r="AH21" s="9"/>
+      <c r="AI21" s="9"/>
+      <c r="AJ21" s="9"/>
+      <c r="AK21" s="9"/>
+      <c r="AL21" s="9"/>
+      <c r="AM21" s="7"/>
+      <c r="AN21" s="7"/>
+    </row>
+    <row r="22" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="9"/>
+      <c r="W22" s="9"/>
+      <c r="X22" s="9"/>
+      <c r="Y22" s="9"/>
+      <c r="Z22" s="9"/>
+      <c r="AA22" s="9"/>
+      <c r="AB22" s="9"/>
+      <c r="AC22" s="9"/>
+      <c r="AD22" s="9"/>
+      <c r="AE22" s="9"/>
+      <c r="AF22" s="9"/>
+      <c r="AG22" s="9"/>
+      <c r="AH22" s="9"/>
+      <c r="AI22" s="9"/>
+      <c r="AJ22" s="9"/>
+      <c r="AK22" s="9"/>
+      <c r="AL22" s="9"/>
+      <c r="AM22" s="7"/>
+      <c r="AN22" s="7"/>
+    </row>
+    <row r="23" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="9"/>
+      <c r="W23" s="9"/>
+      <c r="X23" s="9"/>
+      <c r="Y23" s="9"/>
+      <c r="Z23" s="9"/>
+      <c r="AA23" s="9"/>
+      <c r="AB23" s="9"/>
+      <c r="AC23" s="9"/>
+      <c r="AD23" s="9"/>
+      <c r="AE23" s="9"/>
+      <c r="AF23" s="9"/>
+      <c r="AG23" s="9"/>
+      <c r="AH23" s="9"/>
+      <c r="AI23" s="9"/>
+      <c r="AJ23" s="9"/>
+      <c r="AK23" s="9"/>
+      <c r="AL23" s="9"/>
+      <c r="AM23" s="7"/>
+      <c r="AN23" s="7"/>
+    </row>
+    <row r="24" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="9"/>
+      <c r="W24" s="9"/>
+      <c r="X24" s="9"/>
+      <c r="Y24" s="9"/>
+      <c r="Z24" s="9"/>
+      <c r="AA24" s="9"/>
+      <c r="AB24" s="9"/>
+      <c r="AC24" s="9"/>
+      <c r="AD24" s="9"/>
+      <c r="AE24" s="9"/>
+      <c r="AF24" s="9"/>
+      <c r="AG24" s="9"/>
+      <c r="AH24" s="9"/>
+      <c r="AI24" s="9"/>
+      <c r="AJ24" s="9"/>
+      <c r="AK24" s="9"/>
+      <c r="AL24" s="9"/>
+      <c r="AM24" s="7"/>
+      <c r="AN24" s="7"/>
+    </row>
+    <row r="25" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="9"/>
+      <c r="V25" s="9"/>
+      <c r="W25" s="9"/>
+      <c r="X25" s="9"/>
+      <c r="Y25" s="9"/>
+      <c r="Z25" s="9"/>
+      <c r="AA25" s="9"/>
+      <c r="AB25" s="9"/>
+      <c r="AC25" s="9"/>
+      <c r="AD25" s="9"/>
+      <c r="AE25" s="9"/>
+      <c r="AF25" s="9"/>
+      <c r="AG25" s="9"/>
+      <c r="AH25" s="9"/>
+      <c r="AI25" s="9"/>
+      <c r="AJ25" s="9"/>
+      <c r="AK25" s="9"/>
+      <c r="AL25" s="9"/>
+      <c r="AM25" s="7"/>
+      <c r="AN25" s="7"/>
+    </row>
+    <row r="26" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="9"/>
+      <c r="U26" s="9"/>
+      <c r="V26" s="9"/>
+      <c r="W26" s="9"/>
+      <c r="X26" s="9"/>
+      <c r="Y26" s="9"/>
+      <c r="Z26" s="9"/>
+      <c r="AA26" s="9"/>
+      <c r="AB26" s="9"/>
+      <c r="AC26" s="9"/>
+      <c r="AD26" s="9"/>
+      <c r="AE26" s="9"/>
+      <c r="AF26" s="9"/>
+      <c r="AG26" s="9"/>
+      <c r="AH26" s="9"/>
+      <c r="AI26" s="9"/>
+      <c r="AJ26" s="9"/>
+      <c r="AK26" s="9"/>
+      <c r="AL26" s="9"/>
+      <c r="AM26" s="7"/>
+      <c r="AN26" s="7"/>
+    </row>
+    <row r="27" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="9"/>
+      <c r="U27" s="9"/>
+      <c r="V27" s="9"/>
+      <c r="W27" s="9"/>
+      <c r="X27" s="9"/>
+      <c r="Y27" s="9"/>
+      <c r="Z27" s="9"/>
+      <c r="AA27" s="9"/>
+      <c r="AB27" s="9"/>
+      <c r="AC27" s="9"/>
+      <c r="AD27" s="9"/>
+      <c r="AE27" s="9"/>
+      <c r="AF27" s="9"/>
+      <c r="AG27" s="9"/>
+      <c r="AH27" s="9"/>
+      <c r="AI27" s="9"/>
+      <c r="AJ27" s="9"/>
+      <c r="AK27" s="9"/>
+      <c r="AL27" s="9"/>
+      <c r="AM27" s="7"/>
+      <c r="AN27" s="7"/>
+    </row>
+    <row r="28" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="9"/>
+      <c r="U28" s="9"/>
+      <c r="V28" s="9"/>
+      <c r="W28" s="9"/>
+      <c r="X28" s="9"/>
+      <c r="Y28" s="9"/>
+      <c r="Z28" s="9"/>
+      <c r="AA28" s="9"/>
+      <c r="AB28" s="9"/>
+      <c r="AC28" s="9"/>
+      <c r="AD28" s="9"/>
+      <c r="AE28" s="9"/>
+      <c r="AF28" s="9"/>
+      <c r="AG28" s="9"/>
+      <c r="AH28" s="9"/>
+      <c r="AI28" s="9"/>
+      <c r="AJ28" s="9"/>
+      <c r="AK28" s="9"/>
+      <c r="AL28" s="9"/>
+      <c r="AM28" s="7"/>
+      <c r="AN28" s="7"/>
+    </row>
+    <row r="29" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="9"/>
+      <c r="T29" s="9"/>
+      <c r="U29" s="9"/>
+      <c r="V29" s="9"/>
+      <c r="W29" s="9"/>
+      <c r="X29" s="9"/>
+      <c r="Y29" s="9"/>
+      <c r="Z29" s="9"/>
+      <c r="AA29" s="9"/>
+      <c r="AB29" s="9"/>
+      <c r="AC29" s="9"/>
+      <c r="AD29" s="9"/>
+      <c r="AE29" s="9"/>
+      <c r="AF29" s="9"/>
+      <c r="AG29" s="9"/>
+      <c r="AH29" s="9"/>
+      <c r="AI29" s="9"/>
+      <c r="AJ29" s="9"/>
+      <c r="AK29" s="9"/>
+      <c r="AL29" s="9"/>
+      <c r="AM29" s="7"/>
+      <c r="AN29" s="7"/>
+    </row>
+    <row r="30" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="9"/>
+      <c r="T30" s="9"/>
+      <c r="U30" s="9"/>
+      <c r="V30" s="9"/>
+      <c r="W30" s="9"/>
+      <c r="X30" s="9"/>
+      <c r="Y30" s="9"/>
+      <c r="Z30" s="9"/>
+      <c r="AA30" s="9"/>
+      <c r="AB30" s="9"/>
+      <c r="AC30" s="9"/>
+      <c r="AD30" s="9"/>
+      <c r="AE30" s="9"/>
+      <c r="AF30" s="9"/>
+      <c r="AG30" s="9"/>
+      <c r="AH30" s="9"/>
+      <c r="AI30" s="9"/>
+      <c r="AJ30" s="9"/>
+      <c r="AK30" s="9"/>
+      <c r="AL30" s="9"/>
+      <c r="AM30" s="7"/>
+      <c r="AN30" s="7"/>
+    </row>
+    <row r="31" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="9"/>
+      <c r="T31" s="9"/>
+      <c r="U31" s="9"/>
+      <c r="V31" s="9"/>
+      <c r="W31" s="9"/>
+      <c r="X31" s="9"/>
+      <c r="Y31" s="9"/>
+      <c r="Z31" s="9"/>
+      <c r="AA31" s="9"/>
+      <c r="AB31" s="9"/>
+      <c r="AC31" s="9"/>
+      <c r="AD31" s="9"/>
+      <c r="AE31" s="9"/>
+      <c r="AF31" s="9"/>
+      <c r="AG31" s="9"/>
+      <c r="AH31" s="9"/>
+      <c r="AI31" s="9"/>
+      <c r="AJ31" s="9"/>
+      <c r="AK31" s="9"/>
+      <c r="AL31" s="9"/>
+      <c r="AM31" s="7"/>
+      <c r="AN31" s="7"/>
+    </row>
+    <row r="32" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="9"/>
+      <c r="T32" s="9"/>
+      <c r="U32" s="9"/>
+      <c r="V32" s="9"/>
+      <c r="W32" s="9"/>
+      <c r="X32" s="9"/>
+      <c r="Y32" s="9"/>
+      <c r="Z32" s="9"/>
+      <c r="AA32" s="9"/>
+      <c r="AB32" s="9"/>
+      <c r="AC32" s="9"/>
+      <c r="AD32" s="9"/>
+      <c r="AE32" s="9"/>
+      <c r="AF32" s="9"/>
+      <c r="AG32" s="9"/>
+      <c r="AH32" s="9"/>
+      <c r="AI32" s="9"/>
+      <c r="AJ32" s="9"/>
+      <c r="AK32" s="9"/>
+      <c r="AL32" s="9"/>
+      <c r="AM32" s="7"/>
+      <c r="AN32" s="7"/>
+    </row>
+    <row r="33" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="9"/>
+      <c r="T33" s="9"/>
+      <c r="U33" s="9"/>
+      <c r="V33" s="9"/>
+      <c r="W33" s="9"/>
+      <c r="X33" s="9"/>
+      <c r="Y33" s="9"/>
+      <c r="Z33" s="9"/>
+      <c r="AA33" s="9"/>
+      <c r="AB33" s="9"/>
+      <c r="AC33" s="9"/>
+      <c r="AD33" s="9"/>
+      <c r="AE33" s="9"/>
+      <c r="AF33" s="9"/>
+      <c r="AG33" s="9"/>
+      <c r="AH33" s="9"/>
+      <c r="AI33" s="9"/>
+      <c r="AJ33" s="9"/>
+      <c r="AK33" s="9"/>
+      <c r="AL33" s="9"/>
+      <c r="AM33" s="7"/>
+      <c r="AN33" s="7"/>
+    </row>
+    <row r="34" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="9"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="9"/>
+      <c r="T34" s="9"/>
+      <c r="U34" s="9"/>
+      <c r="V34" s="9"/>
+      <c r="W34" s="9"/>
+      <c r="X34" s="9"/>
+      <c r="Y34" s="9"/>
+      <c r="Z34" s="9"/>
+      <c r="AA34" s="9"/>
+      <c r="AB34" s="9"/>
+      <c r="AC34" s="9"/>
+      <c r="AD34" s="9"/>
+      <c r="AE34" s="9"/>
+      <c r="AF34" s="9"/>
+      <c r="AG34" s="9"/>
+      <c r="AH34" s="9"/>
+      <c r="AI34" s="9"/>
+      <c r="AJ34" s="9"/>
+      <c r="AK34" s="9"/>
+      <c r="AL34" s="9"/>
+      <c r="AM34" s="7"/>
+      <c r="AN34" s="7"/>
+    </row>
+    <row r="35" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="9"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="9"/>
+      <c r="T35" s="9"/>
+      <c r="U35" s="9"/>
+      <c r="V35" s="9"/>
+      <c r="W35" s="9"/>
+      <c r="X35" s="9"/>
+      <c r="Y35" s="9"/>
+      <c r="Z35" s="9"/>
+      <c r="AA35" s="9"/>
+      <c r="AB35" s="9"/>
+      <c r="AC35" s="9"/>
+      <c r="AD35" s="9"/>
+      <c r="AE35" s="9"/>
+      <c r="AF35" s="9"/>
+      <c r="AG35" s="9"/>
+      <c r="AH35" s="9"/>
+      <c r="AI35" s="9"/>
+      <c r="AJ35" s="9"/>
+      <c r="AK35" s="9"/>
+      <c r="AL35" s="9"/>
+      <c r="AM35" s="7"/>
+      <c r="AN35" s="7"/>
+    </row>
+    <row r="36" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="9"/>
+      <c r="T36" s="9"/>
+      <c r="U36" s="9"/>
+      <c r="V36" s="9"/>
+      <c r="W36" s="9"/>
+      <c r="X36" s="9"/>
+      <c r="Y36" s="9"/>
+      <c r="Z36" s="9"/>
+      <c r="AA36" s="9"/>
+      <c r="AB36" s="9"/>
+      <c r="AC36" s="9"/>
+      <c r="AD36" s="9"/>
+      <c r="AE36" s="9"/>
+      <c r="AF36" s="9"/>
+      <c r="AG36" s="9"/>
+      <c r="AH36" s="9"/>
+      <c r="AI36" s="9"/>
+      <c r="AJ36" s="9"/>
+      <c r="AK36" s="9"/>
+      <c r="AL36" s="9"/>
+      <c r="AM36" s="7"/>
+      <c r="AN36" s="7"/>
+    </row>
+    <row r="37" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="9"/>
+      <c r="R37" s="9"/>
+      <c r="S37" s="9"/>
+      <c r="T37" s="9"/>
+      <c r="U37" s="9"/>
+      <c r="V37" s="9"/>
+      <c r="W37" s="9"/>
+      <c r="X37" s="9"/>
+      <c r="Y37" s="9"/>
+      <c r="Z37" s="9"/>
+      <c r="AA37" s="9"/>
+      <c r="AB37" s="9"/>
+      <c r="AC37" s="9"/>
+      <c r="AD37" s="9"/>
+      <c r="AE37" s="9"/>
+      <c r="AF37" s="9"/>
+      <c r="AG37" s="9"/>
+      <c r="AH37" s="9"/>
+      <c r="AI37" s="9"/>
+      <c r="AJ37" s="9"/>
+      <c r="AK37" s="9"/>
+      <c r="AL37" s="9"/>
+      <c r="AM37" s="7"/>
+      <c r="AN37" s="7"/>
+    </row>
+    <row r="38" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="6"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="12"/>
+      <c r="R38" s="12"/>
+      <c r="S38" s="12"/>
+      <c r="T38" s="12"/>
+      <c r="U38" s="12"/>
+      <c r="V38" s="12"/>
+      <c r="W38" s="12"/>
+      <c r="X38" s="12"/>
+      <c r="Y38" s="12"/>
+      <c r="Z38" s="12"/>
+      <c r="AA38" s="12"/>
+      <c r="AB38" s="12"/>
+      <c r="AC38" s="12"/>
+      <c r="AD38" s="12"/>
+      <c r="AE38" s="12"/>
+      <c r="AF38" s="12"/>
+      <c r="AG38" s="12"/>
+      <c r="AH38" s="12"/>
+      <c r="AI38" s="12"/>
+      <c r="AJ38" s="12"/>
+      <c r="AK38" s="12"/>
+      <c r="AL38" s="12"/>
+      <c r="AM38" s="13"/>
+      <c r="AN38" s="7"/>
+    </row>
+    <row r="39" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="11"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="12"/>
+      <c r="Q39" s="12"/>
+      <c r="R39" s="12"/>
+      <c r="S39" s="12"/>
+      <c r="T39" s="12"/>
+      <c r="U39" s="12"/>
+      <c r="V39" s="12"/>
+      <c r="W39" s="12"/>
+      <c r="X39" s="12"/>
+      <c r="Y39" s="12"/>
+      <c r="Z39" s="12"/>
+      <c r="AA39" s="12"/>
+      <c r="AB39" s="12"/>
+      <c r="AC39" s="12"/>
+      <c r="AD39" s="12"/>
+      <c r="AE39" s="12"/>
+      <c r="AF39" s="12"/>
+      <c r="AG39" s="12"/>
+      <c r="AH39" s="12"/>
+      <c r="AI39" s="12"/>
+      <c r="AJ39" s="12"/>
+      <c r="AK39" s="12"/>
+      <c r="AL39" s="12"/>
+      <c r="AM39" s="12"/>
+      <c r="AN39" s="13"/>
+    </row>
+    <row r="40" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="3"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="4"/>
+      <c r="U40" s="4"/>
+      <c r="V40" s="4"/>
+      <c r="W40" s="4"/>
+      <c r="X40" s="4"/>
+      <c r="Y40" s="4"/>
+      <c r="Z40" s="4"/>
+      <c r="AA40" s="4"/>
+      <c r="AB40" s="4"/>
+      <c r="AC40" s="4"/>
+      <c r="AD40" s="4"/>
+      <c r="AE40" s="4"/>
+      <c r="AF40" s="4"/>
+      <c r="AG40" s="4"/>
+      <c r="AH40" s="4"/>
+      <c r="AI40" s="4"/>
+      <c r="AJ40" s="4"/>
+      <c r="AK40" s="4"/>
+      <c r="AL40" s="4"/>
+      <c r="AM40" s="4"/>
+      <c r="AN40" s="5"/>
+    </row>
+    <row r="41" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="6"/>
+      <c r="B41" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="4"/>
+      <c r="U41" s="4"/>
+      <c r="V41" s="4"/>
+      <c r="W41" s="4"/>
+      <c r="X41" s="4"/>
+      <c r="Y41" s="4"/>
+      <c r="Z41" s="4"/>
+      <c r="AA41" s="4"/>
+      <c r="AB41" s="4"/>
+      <c r="AC41" s="4"/>
+      <c r="AD41" s="4"/>
+      <c r="AE41" s="4"/>
+      <c r="AF41" s="4"/>
+      <c r="AG41" s="4"/>
+      <c r="AH41" s="4"/>
+      <c r="AI41" s="4"/>
+      <c r="AJ41" s="4"/>
+      <c r="AK41" s="4"/>
+      <c r="AL41" s="4"/>
+      <c r="AM41" s="5"/>
+      <c r="AN41" s="7"/>
+    </row>
+    <row r="42" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="8"/>
+      <c r="O42" s="8"/>
+      <c r="P42" s="8"/>
+      <c r="Q42" s="8"/>
+      <c r="R42" s="8"/>
+      <c r="S42" s="8"/>
+      <c r="T42" s="8"/>
+      <c r="U42" s="8"/>
+      <c r="V42" s="8"/>
+      <c r="W42" s="8"/>
+      <c r="X42" s="8"/>
+      <c r="Y42" s="8"/>
+      <c r="Z42" s="8"/>
+      <c r="AA42" s="8"/>
+      <c r="AB42" s="8"/>
+      <c r="AC42" s="8"/>
+      <c r="AD42" s="8"/>
+      <c r="AE42" s="8"/>
+      <c r="AF42" s="8"/>
+      <c r="AG42" s="8"/>
+      <c r="AH42" s="8"/>
+      <c r="AI42" s="8"/>
+      <c r="AJ42" s="8"/>
+      <c r="AK42" s="8"/>
+      <c r="AL42" s="8"/>
+      <c r="AM42" s="7"/>
+      <c r="AN42" s="7"/>
+    </row>
+    <row r="43" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="8"/>
+      <c r="O43" s="8"/>
+      <c r="P43" s="8"/>
+      <c r="Q43" s="8"/>
+      <c r="R43" s="8"/>
+      <c r="S43" s="8"/>
+      <c r="T43" s="8"/>
+      <c r="U43" s="8"/>
+      <c r="V43" s="8"/>
+      <c r="W43" s="8"/>
+      <c r="X43" s="8"/>
+      <c r="Y43" s="8"/>
+      <c r="Z43" s="8"/>
+      <c r="AA43" s="8"/>
+      <c r="AB43" s="8"/>
+      <c r="AC43" s="8"/>
+      <c r="AD43" s="8"/>
+      <c r="AE43" s="8"/>
+      <c r="AF43" s="8"/>
+      <c r="AG43" s="8"/>
+      <c r="AH43" s="8"/>
+      <c r="AI43" s="8"/>
+      <c r="AJ43" s="8"/>
+      <c r="AK43" s="8"/>
+      <c r="AL43" s="8"/>
+      <c r="AM43" s="7"/>
+      <c r="AN43" s="7"/>
+    </row>
+    <row r="44" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="9"/>
+      <c r="O44" s="9"/>
+      <c r="P44" s="9"/>
+      <c r="Q44" s="9"/>
+      <c r="R44" s="9"/>
+      <c r="S44" s="9"/>
+      <c r="T44" s="9"/>
+      <c r="U44" s="9"/>
+      <c r="V44" s="9"/>
+      <c r="W44" s="9"/>
+      <c r="X44" s="9"/>
+      <c r="Y44" s="9"/>
+      <c r="Z44" s="9"/>
+      <c r="AA44" s="9"/>
+      <c r="AB44" s="9"/>
+      <c r="AC44" s="9"/>
+      <c r="AD44" s="9"/>
+      <c r="AE44" s="9"/>
+      <c r="AF44" s="9"/>
+      <c r="AG44" s="9"/>
+      <c r="AH44" s="9"/>
+      <c r="AI44" s="9"/>
+      <c r="AJ44" s="9"/>
+      <c r="AK44" s="9"/>
+      <c r="AL44" s="9"/>
+      <c r="AM44" s="7"/>
+      <c r="AN44" s="7"/>
+    </row>
+    <row r="45" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="9"/>
+      <c r="O45" s="9"/>
+      <c r="P45" s="9"/>
+      <c r="Q45" s="9"/>
+      <c r="R45" s="9"/>
+      <c r="S45" s="9"/>
+      <c r="T45" s="9"/>
+      <c r="U45" s="9"/>
+      <c r="V45" s="9"/>
+      <c r="W45" s="9"/>
+      <c r="X45" s="9"/>
+      <c r="Y45" s="9"/>
+      <c r="Z45" s="9"/>
+      <c r="AA45" s="9"/>
+      <c r="AB45" s="9"/>
+      <c r="AC45" s="9"/>
+      <c r="AD45" s="9"/>
+      <c r="AE45" s="9"/>
+      <c r="AF45" s="9"/>
+      <c r="AG45" s="9"/>
+      <c r="AH45" s="9"/>
+      <c r="AI45" s="9"/>
+      <c r="AJ45" s="9"/>
+      <c r="AK45" s="9"/>
+      <c r="AL45" s="9"/>
+      <c r="AM45" s="7"/>
+      <c r="AN45" s="7"/>
+    </row>
+    <row r="46" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="9"/>
+      <c r="O46" s="9"/>
+      <c r="P46" s="9"/>
+      <c r="Q46" s="9"/>
+      <c r="R46" s="9"/>
+      <c r="S46" s="9"/>
+      <c r="T46" s="9"/>
+      <c r="U46" s="9"/>
+      <c r="V46" s="9"/>
+      <c r="W46" s="9"/>
+      <c r="X46" s="9"/>
+      <c r="Y46" s="9"/>
+      <c r="Z46" s="9"/>
+      <c r="AA46" s="9"/>
+      <c r="AB46" s="9"/>
+      <c r="AC46" s="9"/>
+      <c r="AD46" s="9"/>
+      <c r="AE46" s="9"/>
+      <c r="AF46" s="9"/>
+      <c r="AG46" s="9"/>
+      <c r="AH46" s="9"/>
+      <c r="AI46" s="9"/>
+      <c r="AJ46" s="9"/>
+      <c r="AK46" s="9"/>
+      <c r="AL46" s="9"/>
+      <c r="AM46" s="7"/>
+      <c r="AN46" s="7"/>
+    </row>
+    <row r="47" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="9"/>
+      <c r="O47" s="9"/>
+      <c r="P47" s="9"/>
+      <c r="Q47" s="9"/>
+      <c r="R47" s="9"/>
+      <c r="S47" s="9"/>
+      <c r="T47" s="9"/>
+      <c r="U47" s="9"/>
+      <c r="V47" s="9"/>
+      <c r="W47" s="9"/>
+      <c r="X47" s="9"/>
+      <c r="Y47" s="9"/>
+      <c r="Z47" s="9"/>
+      <c r="AA47" s="9"/>
+      <c r="AB47" s="9"/>
+      <c r="AC47" s="9"/>
+      <c r="AD47" s="9"/>
+      <c r="AE47" s="9"/>
+      <c r="AF47" s="9"/>
+      <c r="AG47" s="9"/>
+      <c r="AH47" s="9"/>
+      <c r="AI47" s="9"/>
+      <c r="AJ47" s="9"/>
+      <c r="AK47" s="9"/>
+      <c r="AL47" s="9"/>
+      <c r="AM47" s="7"/>
+      <c r="AN47" s="7"/>
+    </row>
+    <row r="48" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="9"/>
+      <c r="O48" s="9"/>
+      <c r="P48" s="9"/>
+      <c r="Q48" s="9"/>
+      <c r="R48" s="9"/>
+      <c r="S48" s="9"/>
+      <c r="T48" s="9"/>
+      <c r="U48" s="9"/>
+      <c r="V48" s="9"/>
+      <c r="W48" s="9"/>
+      <c r="X48" s="9"/>
+      <c r="Y48" s="9"/>
+      <c r="Z48" s="9"/>
+      <c r="AA48" s="9"/>
+      <c r="AB48" s="9"/>
+      <c r="AC48" s="9"/>
+      <c r="AD48" s="9"/>
+      <c r="AE48" s="9"/>
+      <c r="AF48" s="9"/>
+      <c r="AG48" s="9"/>
+      <c r="AH48" s="9"/>
+      <c r="AI48" s="9"/>
+      <c r="AJ48" s="9"/>
+      <c r="AK48" s="9"/>
+      <c r="AL48" s="9"/>
+      <c r="AM48" s="7"/>
+      <c r="AN48" s="7"/>
+    </row>
+    <row r="49" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="6"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="9"/>
+      <c r="O49" s="9"/>
+      <c r="P49" s="9"/>
+      <c r="Q49" s="9"/>
+      <c r="R49" s="9"/>
+      <c r="S49" s="9"/>
+      <c r="T49" s="9"/>
+      <c r="U49" s="9"/>
+      <c r="V49" s="9"/>
+      <c r="W49" s="9"/>
+      <c r="X49" s="9"/>
+      <c r="Y49" s="9"/>
+      <c r="Z49" s="9"/>
+      <c r="AA49" s="9"/>
+      <c r="AB49" s="9"/>
+      <c r="AC49" s="9"/>
+      <c r="AD49" s="9"/>
+      <c r="AE49" s="9"/>
+      <c r="AF49" s="9"/>
+      <c r="AG49" s="9"/>
+      <c r="AH49" s="9"/>
+      <c r="AI49" s="9"/>
+      <c r="AJ49" s="9"/>
+      <c r="AK49" s="9"/>
+      <c r="AL49" s="9"/>
+      <c r="AM49" s="7"/>
+      <c r="AN49" s="7"/>
+    </row>
+    <row r="50" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="6"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
+      <c r="N50" s="9"/>
+      <c r="O50" s="9"/>
+      <c r="P50" s="9"/>
+      <c r="Q50" s="9"/>
+      <c r="R50" s="9"/>
+      <c r="S50" s="9"/>
+      <c r="T50" s="9"/>
+      <c r="U50" s="9"/>
+      <c r="V50" s="9"/>
+      <c r="W50" s="9"/>
+      <c r="X50" s="9"/>
+      <c r="Y50" s="9"/>
+      <c r="Z50" s="9"/>
+      <c r="AA50" s="9"/>
+      <c r="AB50" s="9"/>
+      <c r="AC50" s="9"/>
+      <c r="AD50" s="9"/>
+      <c r="AE50" s="9"/>
+      <c r="AF50" s="9"/>
+      <c r="AG50" s="9"/>
+      <c r="AH50" s="9"/>
+      <c r="AI50" s="9"/>
+      <c r="AJ50" s="9"/>
+      <c r="AK50" s="9"/>
+      <c r="AL50" s="9"/>
+      <c r="AM50" s="7"/>
+      <c r="AN50" s="7"/>
+    </row>
+    <row r="51" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="6"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="9"/>
+      <c r="O51" s="9"/>
+      <c r="P51" s="9"/>
+      <c r="Q51" s="9"/>
+      <c r="R51" s="9"/>
+      <c r="S51" s="9"/>
+      <c r="T51" s="9"/>
+      <c r="U51" s="9"/>
+      <c r="V51" s="9"/>
+      <c r="W51" s="9"/>
+      <c r="X51" s="9"/>
+      <c r="Y51" s="9"/>
+      <c r="Z51" s="9"/>
+      <c r="AA51" s="9"/>
+      <c r="AB51" s="9"/>
+      <c r="AC51" s="9"/>
+      <c r="AD51" s="9"/>
+      <c r="AE51" s="9"/>
+      <c r="AF51" s="9"/>
+      <c r="AG51" s="9"/>
+      <c r="AH51" s="9"/>
+      <c r="AI51" s="9"/>
+      <c r="AJ51" s="9"/>
+      <c r="AK51" s="9"/>
+      <c r="AL51" s="9"/>
+      <c r="AM51" s="7"/>
+      <c r="AN51" s="7"/>
+    </row>
+    <row r="52" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="6"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="9"/>
+      <c r="O52" s="9"/>
+      <c r="P52" s="9"/>
+      <c r="Q52" s="9"/>
+      <c r="R52" s="9"/>
+      <c r="S52" s="9"/>
+      <c r="T52" s="9"/>
+      <c r="U52" s="9"/>
+      <c r="V52" s="9"/>
+      <c r="W52" s="9"/>
+      <c r="X52" s="9"/>
+      <c r="Y52" s="9"/>
+      <c r="Z52" s="9"/>
+      <c r="AA52" s="9"/>
+      <c r="AB52" s="9"/>
+      <c r="AC52" s="9"/>
+      <c r="AD52" s="9"/>
+      <c r="AE52" s="9"/>
+      <c r="AF52" s="9"/>
+      <c r="AG52" s="9"/>
+      <c r="AH52" s="9"/>
+      <c r="AI52" s="9"/>
+      <c r="AJ52" s="9"/>
+      <c r="AK52" s="9"/>
+      <c r="AL52" s="9"/>
+      <c r="AM52" s="7"/>
+      <c r="AN52" s="7"/>
+    </row>
+    <row r="53" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="6"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9"/>
+      <c r="N53" s="8"/>
+      <c r="O53" s="8"/>
+      <c r="P53" s="8"/>
+      <c r="Q53" s="8"/>
+      <c r="R53" s="8"/>
+      <c r="S53" s="9"/>
+      <c r="T53" s="9"/>
+      <c r="U53" s="9"/>
+      <c r="V53" s="9"/>
+      <c r="W53" s="9"/>
+      <c r="X53" s="9"/>
+      <c r="Y53" s="9"/>
+      <c r="Z53" s="9"/>
+      <c r="AA53" s="9"/>
+      <c r="AB53" s="9"/>
+      <c r="AC53" s="9"/>
+      <c r="AD53" s="9"/>
+      <c r="AE53" s="9"/>
+      <c r="AF53" s="9"/>
+      <c r="AG53" s="9"/>
+      <c r="AH53" s="9"/>
+      <c r="AI53" s="9"/>
+      <c r="AJ53" s="9"/>
+      <c r="AK53" s="9"/>
+      <c r="AL53" s="9"/>
+      <c r="AM53" s="7"/>
+      <c r="AN53" s="7"/>
+    </row>
+    <row r="54" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="6"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
+      <c r="N54" s="8"/>
+      <c r="O54" s="8"/>
+      <c r="P54" s="8"/>
+      <c r="Q54" s="8"/>
+      <c r="R54" s="8"/>
+      <c r="S54" s="9"/>
+      <c r="T54" s="9"/>
+      <c r="U54" s="9"/>
+      <c r="V54" s="9"/>
+      <c r="W54" s="9"/>
+      <c r="X54" s="9"/>
+      <c r="Y54" s="9"/>
+      <c r="Z54" s="9"/>
+      <c r="AA54" s="9"/>
+      <c r="AB54" s="9"/>
+      <c r="AC54" s="9"/>
+      <c r="AD54" s="9"/>
+      <c r="AE54" s="9"/>
+      <c r="AF54" s="9"/>
+      <c r="AG54" s="9"/>
+      <c r="AH54" s="9"/>
+      <c r="AI54" s="9"/>
+      <c r="AJ54" s="9"/>
+      <c r="AK54" s="9"/>
+      <c r="AL54" s="9"/>
+      <c r="AM54" s="7"/>
+      <c r="AN54" s="7"/>
+    </row>
+    <row r="55" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="6"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c r="L55" s="9"/>
+      <c r="M55" s="9"/>
+      <c r="N55" s="8"/>
+      <c r="O55" s="8"/>
+      <c r="P55" s="8"/>
+      <c r="Q55" s="8"/>
+      <c r="R55" s="8"/>
+      <c r="S55" s="9"/>
+      <c r="T55" s="9"/>
+      <c r="U55" s="9"/>
+      <c r="V55" s="9"/>
+      <c r="W55" s="9"/>
+      <c r="X55" s="9"/>
+      <c r="Y55" s="9"/>
+      <c r="Z55" s="9"/>
+      <c r="AA55" s="9"/>
+      <c r="AB55" s="9"/>
+      <c r="AC55" s="9"/>
+      <c r="AD55" s="9"/>
+      <c r="AE55" s="9"/>
+      <c r="AF55" s="9"/>
+      <c r="AG55" s="9"/>
+      <c r="AH55" s="9"/>
+      <c r="AI55" s="9"/>
+      <c r="AJ55" s="9"/>
+      <c r="AK55" s="9"/>
+      <c r="AL55" s="9"/>
+      <c r="AM55" s="7"/>
+      <c r="AN55" s="7"/>
+    </row>
+    <row r="56" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="6"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c r="L56" s="9"/>
+      <c r="M56" s="9"/>
+      <c r="N56" s="9"/>
+      <c r="O56" s="9"/>
+      <c r="P56" s="9"/>
+      <c r="Q56" s="9"/>
+      <c r="R56" s="9"/>
+      <c r="S56" s="9"/>
+      <c r="T56" s="9"/>
+      <c r="U56" s="9"/>
+      <c r="V56" s="9"/>
+      <c r="W56" s="9"/>
+      <c r="X56" s="9"/>
+      <c r="Y56" s="9"/>
+      <c r="Z56" s="9"/>
+      <c r="AA56" s="9"/>
+      <c r="AB56" s="9"/>
+      <c r="AC56" s="9"/>
+      <c r="AD56" s="9"/>
+      <c r="AE56" s="9"/>
+      <c r="AF56" s="9"/>
+      <c r="AG56" s="9"/>
+      <c r="AH56" s="9"/>
+      <c r="AI56" s="9"/>
+      <c r="AJ56" s="9"/>
+      <c r="AK56" s="9"/>
+      <c r="AL56" s="9"/>
+      <c r="AM56" s="7"/>
+      <c r="AN56" s="7"/>
+    </row>
+    <row r="57" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="6"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c r="L57" s="9"/>
+      <c r="M57" s="9"/>
+      <c r="N57" s="9"/>
+      <c r="O57" s="9"/>
+      <c r="P57" s="9"/>
+      <c r="Q57" s="9"/>
+      <c r="R57" s="9"/>
+      <c r="S57" s="9"/>
+      <c r="T57" s="9"/>
+      <c r="U57" s="9"/>
+      <c r="V57" s="9"/>
+      <c r="W57" s="9"/>
+      <c r="X57" s="9"/>
+      <c r="Y57" s="9"/>
+      <c r="Z57" s="9"/>
+      <c r="AA57" s="9"/>
+      <c r="AB57" s="9"/>
+      <c r="AC57" s="9"/>
+      <c r="AD57" s="9"/>
+      <c r="AE57" s="9"/>
+      <c r="AF57" s="9"/>
+      <c r="AG57" s="9"/>
+      <c r="AH57" s="9"/>
+      <c r="AI57" s="9"/>
+      <c r="AJ57" s="9"/>
+      <c r="AK57" s="9"/>
+      <c r="AL57" s="9"/>
+      <c r="AM57" s="7"/>
+      <c r="AN57" s="7"/>
+    </row>
+    <row r="58" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="6"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="9"/>
+      <c r="N58" s="9"/>
+      <c r="O58" s="9"/>
+      <c r="P58" s="9"/>
+      <c r="Q58" s="9"/>
+      <c r="R58" s="9"/>
+      <c r="S58" s="9"/>
+      <c r="T58" s="9"/>
+      <c r="U58" s="9"/>
+      <c r="V58" s="9"/>
+      <c r="W58" s="9"/>
+      <c r="X58" s="9"/>
+      <c r="Y58" s="9"/>
+      <c r="Z58" s="9"/>
+      <c r="AA58" s="9"/>
+      <c r="AB58" s="9"/>
+      <c r="AC58" s="9"/>
+      <c r="AD58" s="9"/>
+      <c r="AE58" s="9"/>
+      <c r="AF58" s="9"/>
+      <c r="AG58" s="9"/>
+      <c r="AH58" s="9"/>
+      <c r="AI58" s="9"/>
+      <c r="AJ58" s="9"/>
+      <c r="AK58" s="9"/>
+      <c r="AL58" s="9"/>
+      <c r="AM58" s="7"/>
+      <c r="AN58" s="7"/>
+    </row>
+    <row r="59" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="6"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c r="L59" s="9"/>
+      <c r="M59" s="9"/>
+      <c r="N59" s="9"/>
+      <c r="O59" s="9"/>
+      <c r="P59" s="9"/>
+      <c r="Q59" s="9"/>
+      <c r="R59" s="9"/>
+      <c r="S59" s="9"/>
+      <c r="T59" s="9"/>
+      <c r="U59" s="9"/>
+      <c r="V59" s="9"/>
+      <c r="W59" s="9"/>
+      <c r="X59" s="9"/>
+      <c r="Y59" s="9"/>
+      <c r="Z59" s="9"/>
+      <c r="AA59" s="9"/>
+      <c r="AB59" s="9"/>
+      <c r="AC59" s="9"/>
+      <c r="AD59" s="9"/>
+      <c r="AE59" s="9"/>
+      <c r="AF59" s="9"/>
+      <c r="AG59" s="9"/>
+      <c r="AH59" s="9"/>
+      <c r="AI59" s="9"/>
+      <c r="AJ59" s="9"/>
+      <c r="AK59" s="9"/>
+      <c r="AL59" s="9"/>
+      <c r="AM59" s="7"/>
+      <c r="AN59" s="7"/>
+    </row>
+    <row r="60" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="6"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9"/>
+      <c r="N60" s="9"/>
+      <c r="O60" s="9"/>
+      <c r="P60" s="9"/>
+      <c r="Q60" s="9"/>
+      <c r="R60" s="9"/>
+      <c r="S60" s="9"/>
+      <c r="T60" s="9"/>
+      <c r="U60" s="9"/>
+      <c r="V60" s="9"/>
+      <c r="W60" s="9"/>
+      <c r="X60" s="9"/>
+      <c r="Y60" s="9"/>
+      <c r="Z60" s="9"/>
+      <c r="AA60" s="9"/>
+      <c r="AB60" s="9"/>
+      <c r="AC60" s="9"/>
+      <c r="AD60" s="9"/>
+      <c r="AE60" s="9"/>
+      <c r="AF60" s="9"/>
+      <c r="AG60" s="9"/>
+      <c r="AH60" s="9"/>
+      <c r="AI60" s="9"/>
+      <c r="AJ60" s="9"/>
+      <c r="AK60" s="9"/>
+      <c r="AL60" s="9"/>
+      <c r="AM60" s="7"/>
+      <c r="AN60" s="7"/>
+    </row>
+    <row r="61" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="6"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c r="L61" s="9"/>
+      <c r="M61" s="9"/>
+      <c r="N61" s="9"/>
+      <c r="O61" s="9"/>
+      <c r="P61" s="9"/>
+      <c r="Q61" s="9"/>
+      <c r="R61" s="9"/>
+      <c r="S61" s="9"/>
+      <c r="T61" s="9"/>
+      <c r="U61" s="9"/>
+      <c r="V61" s="9"/>
+      <c r="W61" s="9"/>
+      <c r="X61" s="9"/>
+      <c r="Y61" s="9"/>
+      <c r="Z61" s="9"/>
+      <c r="AA61" s="9"/>
+      <c r="AB61" s="9"/>
+      <c r="AC61" s="9"/>
+      <c r="AD61" s="9"/>
+      <c r="AE61" s="9"/>
+      <c r="AF61" s="9"/>
+      <c r="AG61" s="9"/>
+      <c r="AH61" s="9"/>
+      <c r="AI61" s="9"/>
+      <c r="AJ61" s="9"/>
+      <c r="AK61" s="9"/>
+      <c r="AL61" s="9"/>
+      <c r="AM61" s="7"/>
+      <c r="AN61" s="7"/>
+    </row>
+    <row r="62" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="6"/>
+      <c r="B62" s="6"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="9"/>
+      <c r="N62" s="9"/>
+      <c r="O62" s="9"/>
+      <c r="P62" s="9"/>
+      <c r="Q62" s="9"/>
+      <c r="R62" s="9"/>
+      <c r="S62" s="9"/>
+      <c r="T62" s="9"/>
+      <c r="U62" s="9"/>
+      <c r="V62" s="9"/>
+      <c r="W62" s="9"/>
+      <c r="X62" s="9"/>
+      <c r="Y62" s="9"/>
+      <c r="Z62" s="9"/>
+      <c r="AA62" s="9"/>
+      <c r="AB62" s="9"/>
+      <c r="AC62" s="9"/>
+      <c r="AD62" s="9"/>
+      <c r="AE62" s="9"/>
+      <c r="AF62" s="9"/>
+      <c r="AG62" s="9"/>
+      <c r="AH62" s="9"/>
+      <c r="AI62" s="9"/>
+      <c r="AJ62" s="9"/>
+      <c r="AK62" s="9"/>
+      <c r="AL62" s="9"/>
+      <c r="AM62" s="7"/>
+      <c r="AN62" s="7"/>
+    </row>
+    <row r="63" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="6"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c r="L63" s="9"/>
+      <c r="M63" s="9"/>
+      <c r="N63" s="9"/>
+      <c r="O63" s="9"/>
+      <c r="P63" s="9"/>
+      <c r="Q63" s="9"/>
+      <c r="R63" s="9"/>
+      <c r="S63" s="9"/>
+      <c r="T63" s="9"/>
+      <c r="U63" s="9"/>
+      <c r="V63" s="9"/>
+      <c r="W63" s="9"/>
+      <c r="X63" s="9"/>
+      <c r="Y63" s="9"/>
+      <c r="Z63" s="9"/>
+      <c r="AA63" s="9"/>
+      <c r="AB63" s="9"/>
+      <c r="AC63" s="9"/>
+      <c r="AD63" s="9"/>
+      <c r="AE63" s="9"/>
+      <c r="AF63" s="9"/>
+      <c r="AG63" s="9"/>
+      <c r="AH63" s="9"/>
+      <c r="AI63" s="9"/>
+      <c r="AJ63" s="9"/>
+      <c r="AK63" s="9"/>
+      <c r="AL63" s="9"/>
+      <c r="AM63" s="7"/>
+      <c r="AN63" s="7"/>
+    </row>
+    <row r="64" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="6"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c r="L64" s="9"/>
+      <c r="M64" s="9"/>
+      <c r="N64" s="9"/>
+      <c r="O64" s="9"/>
+      <c r="P64" s="9"/>
+      <c r="Q64" s="9"/>
+      <c r="R64" s="9"/>
+      <c r="S64" s="9"/>
+      <c r="T64" s="9"/>
+      <c r="U64" s="9"/>
+      <c r="V64" s="9"/>
+      <c r="W64" s="9"/>
+      <c r="X64" s="9"/>
+      <c r="Y64" s="9"/>
+      <c r="Z64" s="9"/>
+      <c r="AA64" s="9"/>
+      <c r="AB64" s="9"/>
+      <c r="AC64" s="9"/>
+      <c r="AD64" s="9"/>
+      <c r="AE64" s="9"/>
+      <c r="AF64" s="9"/>
+      <c r="AG64" s="9"/>
+      <c r="AH64" s="9"/>
+      <c r="AI64" s="9"/>
+      <c r="AJ64" s="9"/>
+      <c r="AK64" s="9"/>
+      <c r="AL64" s="9"/>
+      <c r="AM64" s="7"/>
+      <c r="AN64" s="7"/>
+    </row>
+    <row r="65" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="6"/>
+      <c r="B65" s="6"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c r="L65" s="9"/>
+      <c r="M65" s="9"/>
+      <c r="N65" s="9"/>
+      <c r="O65" s="9"/>
+      <c r="P65" s="9"/>
+      <c r="Q65" s="9"/>
+      <c r="R65" s="9"/>
+      <c r="S65" s="9"/>
+      <c r="T65" s="9"/>
+      <c r="U65" s="9"/>
+      <c r="V65" s="9"/>
+      <c r="W65" s="9"/>
+      <c r="X65" s="9"/>
+      <c r="Y65" s="9"/>
+      <c r="Z65" s="9"/>
+      <c r="AA65" s="9"/>
+      <c r="AB65" s="9"/>
+      <c r="AC65" s="9"/>
+      <c r="AD65" s="9"/>
+      <c r="AE65" s="9"/>
+      <c r="AF65" s="9"/>
+      <c r="AG65" s="9"/>
+      <c r="AH65" s="9"/>
+      <c r="AI65" s="9"/>
+      <c r="AJ65" s="9"/>
+      <c r="AK65" s="9"/>
+      <c r="AL65" s="9"/>
+      <c r="AM65" s="7"/>
+      <c r="AN65" s="7"/>
+    </row>
+    <row r="66" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="6"/>
+      <c r="B66" s="6"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c r="L66" s="9"/>
+      <c r="M66" s="9"/>
+      <c r="N66" s="9"/>
+      <c r="O66" s="9"/>
+      <c r="P66" s="9"/>
+      <c r="Q66" s="9"/>
+      <c r="R66" s="9"/>
+      <c r="S66" s="9"/>
+      <c r="T66" s="9"/>
+      <c r="U66" s="9"/>
+      <c r="V66" s="9"/>
+      <c r="W66" s="9"/>
+      <c r="X66" s="9"/>
+      <c r="Y66" s="9"/>
+      <c r="Z66" s="9"/>
+      <c r="AA66" s="9"/>
+      <c r="AB66" s="9"/>
+      <c r="AC66" s="9"/>
+      <c r="AD66" s="9"/>
+      <c r="AE66" s="9"/>
+      <c r="AF66" s="9"/>
+      <c r="AG66" s="9"/>
+      <c r="AH66" s="9"/>
+      <c r="AI66" s="9"/>
+      <c r="AJ66" s="9"/>
+      <c r="AK66" s="9"/>
+      <c r="AL66" s="9"/>
+      <c r="AM66" s="7"/>
+      <c r="AN66" s="7"/>
+    </row>
+    <row r="67" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="6"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c r="L67" s="9"/>
+      <c r="M67" s="9"/>
+      <c r="N67" s="9"/>
+      <c r="O67" s="9"/>
+      <c r="P67" s="9"/>
+      <c r="Q67" s="9"/>
+      <c r="R67" s="9"/>
+      <c r="S67" s="9"/>
+      <c r="T67" s="9"/>
+      <c r="U67" s="9"/>
+      <c r="V67" s="9"/>
+      <c r="W67" s="9"/>
+      <c r="X67" s="9"/>
+      <c r="Y67" s="9"/>
+      <c r="Z67" s="9"/>
+      <c r="AA67" s="9"/>
+      <c r="AB67" s="9"/>
+      <c r="AC67" s="9"/>
+      <c r="AD67" s="9"/>
+      <c r="AE67" s="9"/>
+      <c r="AF67" s="9"/>
+      <c r="AG67" s="9"/>
+      <c r="AH67" s="9"/>
+      <c r="AI67" s="9"/>
+      <c r="AJ67" s="9"/>
+      <c r="AK67" s="9"/>
+      <c r="AL67" s="9"/>
+      <c r="AM67" s="7"/>
+      <c r="AN67" s="7"/>
+    </row>
+    <row r="68" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="6"/>
+      <c r="B68" s="6"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c r="L68" s="9"/>
+      <c r="M68" s="9"/>
+      <c r="N68" s="9"/>
+      <c r="O68" s="9"/>
+      <c r="P68" s="9"/>
+      <c r="Q68" s="9"/>
+      <c r="R68" s="9"/>
+      <c r="S68" s="9"/>
+      <c r="T68" s="9"/>
+      <c r="U68" s="9"/>
+      <c r="V68" s="9"/>
+      <c r="W68" s="9"/>
+      <c r="X68" s="9"/>
+      <c r="Y68" s="9"/>
+      <c r="Z68" s="9"/>
+      <c r="AA68" s="9"/>
+      <c r="AB68" s="9"/>
+      <c r="AC68" s="9"/>
+      <c r="AD68" s="9"/>
+      <c r="AE68" s="9"/>
+      <c r="AF68" s="9"/>
+      <c r="AG68" s="9"/>
+      <c r="AH68" s="9"/>
+      <c r="AI68" s="9"/>
+      <c r="AJ68" s="9"/>
+      <c r="AK68" s="9"/>
+      <c r="AL68" s="9"/>
+      <c r="AM68" s="7"/>
+      <c r="AN68" s="7"/>
+    </row>
+    <row r="69" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="6"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c r="L69" s="9"/>
+      <c r="M69" s="9"/>
+      <c r="N69" s="9"/>
+      <c r="O69" s="9"/>
+      <c r="P69" s="9"/>
+      <c r="Q69" s="9"/>
+      <c r="R69" s="9"/>
+      <c r="S69" s="9"/>
+      <c r="T69" s="9"/>
+      <c r="U69" s="9"/>
+      <c r="V69" s="9"/>
+      <c r="W69" s="9"/>
+      <c r="X69" s="9"/>
+      <c r="Y69" s="9"/>
+      <c r="Z69" s="9"/>
+      <c r="AA69" s="9"/>
+      <c r="AB69" s="9"/>
+      <c r="AC69" s="9"/>
+      <c r="AD69" s="9"/>
+      <c r="AE69" s="9"/>
+      <c r="AF69" s="9"/>
+      <c r="AG69" s="9"/>
+      <c r="AH69" s="9"/>
+      <c r="AI69" s="9"/>
+      <c r="AJ69" s="9"/>
+      <c r="AK69" s="9"/>
+      <c r="AL69" s="9"/>
+      <c r="AM69" s="7"/>
+      <c r="AN69" s="7"/>
+    </row>
+    <row r="70" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="6"/>
+      <c r="B70" s="6"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c r="L70" s="9"/>
+      <c r="M70" s="9"/>
+      <c r="N70" s="9"/>
+      <c r="O70" s="9"/>
+      <c r="P70" s="9"/>
+      <c r="Q70" s="9"/>
+      <c r="R70" s="9"/>
+      <c r="S70" s="9"/>
+      <c r="T70" s="9"/>
+      <c r="U70" s="9"/>
+      <c r="V70" s="9"/>
+      <c r="W70" s="9"/>
+      <c r="X70" s="9"/>
+      <c r="Y70" s="9"/>
+      <c r="Z70" s="9"/>
+      <c r="AA70" s="9"/>
+      <c r="AB70" s="9"/>
+      <c r="AC70" s="9"/>
+      <c r="AD70" s="9"/>
+      <c r="AE70" s="9"/>
+      <c r="AF70" s="9"/>
+      <c r="AG70" s="9"/>
+      <c r="AH70" s="9"/>
+      <c r="AI70" s="9"/>
+      <c r="AJ70" s="9"/>
+      <c r="AK70" s="9"/>
+      <c r="AL70" s="9"/>
+      <c r="AM70" s="7"/>
+      <c r="AN70" s="7"/>
+    </row>
+    <row r="71" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="6"/>
+      <c r="B71" s="6"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c r="L71" s="9"/>
+      <c r="M71" s="9"/>
+      <c r="N71" s="9"/>
+      <c r="O71" s="9"/>
+      <c r="P71" s="9"/>
+      <c r="Q71" s="9"/>
+      <c r="R71" s="9"/>
+      <c r="S71" s="9"/>
+      <c r="T71" s="9"/>
+      <c r="U71" s="9"/>
+      <c r="V71" s="9"/>
+      <c r="W71" s="9"/>
+      <c r="X71" s="9"/>
+      <c r="Y71" s="9"/>
+      <c r="Z71" s="9"/>
+      <c r="AA71" s="9"/>
+      <c r="AB71" s="9"/>
+      <c r="AC71" s="9"/>
+      <c r="AD71" s="9"/>
+      <c r="AE71" s="9"/>
+      <c r="AF71" s="9"/>
+      <c r="AG71" s="9"/>
+      <c r="AH71" s="9"/>
+      <c r="AI71" s="9"/>
+      <c r="AJ71" s="9"/>
+      <c r="AK71" s="9"/>
+      <c r="AL71" s="9"/>
+      <c r="AM71" s="7"/>
+      <c r="AN71" s="7"/>
+    </row>
+    <row r="72" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="6"/>
+      <c r="B72" s="6"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c r="L72" s="9"/>
+      <c r="M72" s="9"/>
+      <c r="N72" s="9"/>
+      <c r="O72" s="9"/>
+      <c r="P72" s="9"/>
+      <c r="Q72" s="9"/>
+      <c r="R72" s="9"/>
+      <c r="S72" s="9"/>
+      <c r="T72" s="9"/>
+      <c r="U72" s="9"/>
+      <c r="V72" s="9"/>
+      <c r="W72" s="9"/>
+      <c r="X72" s="9"/>
+      <c r="Y72" s="9"/>
+      <c r="Z72" s="9"/>
+      <c r="AA72" s="9"/>
+      <c r="AB72" s="9"/>
+      <c r="AC72" s="9"/>
+      <c r="AD72" s="9"/>
+      <c r="AE72" s="9"/>
+      <c r="AF72" s="9"/>
+      <c r="AG72" s="9"/>
+      <c r="AH72" s="9"/>
+      <c r="AI72" s="9"/>
+      <c r="AJ72" s="9"/>
+      <c r="AK72" s="9"/>
+      <c r="AL72" s="9"/>
+      <c r="AM72" s="7"/>
+      <c r="AN72" s="7"/>
+    </row>
+    <row r="73" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="6"/>
+      <c r="B73" s="11"/>
+      <c r="C73" s="12"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="12"/>
+      <c r="H73" s="12"/>
+      <c r="I73" s="12"/>
+      <c r="J73" s="12"/>
+      <c r="K73" s="12"/>
+      <c r="L73" s="12"/>
+      <c r="M73" s="12"/>
+      <c r="N73" s="12"/>
+      <c r="O73" s="12"/>
+      <c r="P73" s="12"/>
+      <c r="Q73" s="12"/>
+      <c r="R73" s="12"/>
+      <c r="S73" s="12"/>
+      <c r="T73" s="12"/>
+      <c r="U73" s="12"/>
+      <c r="V73" s="12"/>
+      <c r="W73" s="12"/>
+      <c r="X73" s="12"/>
+      <c r="Y73" s="12"/>
+      <c r="Z73" s="12"/>
+      <c r="AA73" s="12"/>
+      <c r="AB73" s="12"/>
+      <c r="AC73" s="12"/>
+      <c r="AD73" s="12"/>
+      <c r="AE73" s="12"/>
+      <c r="AF73" s="12"/>
+      <c r="AG73" s="12"/>
+      <c r="AH73" s="12"/>
+      <c r="AI73" s="12"/>
+      <c r="AJ73" s="12"/>
+      <c r="AK73" s="12"/>
+      <c r="AL73" s="12"/>
+      <c r="AM73" s="13"/>
+      <c r="AN73" s="7"/>
+    </row>
+    <row r="74" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="11"/>
+      <c r="B74" s="12"/>
+      <c r="C74" s="12"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="12"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="12"/>
+      <c r="I74" s="12"/>
+      <c r="J74" s="12"/>
+      <c r="K74" s="12"/>
+      <c r="L74" s="12"/>
+      <c r="M74" s="12"/>
+      <c r="N74" s="12"/>
+      <c r="O74" s="12"/>
+      <c r="P74" s="12"/>
+      <c r="Q74" s="12"/>
+      <c r="R74" s="12"/>
+      <c r="S74" s="12"/>
+      <c r="T74" s="12"/>
+      <c r="U74" s="12"/>
+      <c r="V74" s="12"/>
+      <c r="W74" s="12"/>
+      <c r="X74" s="12"/>
+      <c r="Y74" s="12"/>
+      <c r="Z74" s="12"/>
+      <c r="AA74" s="12"/>
+      <c r="AB74" s="12"/>
+      <c r="AC74" s="12"/>
+      <c r="AD74" s="12"/>
+      <c r="AE74" s="12"/>
+      <c r="AF74" s="12"/>
+      <c r="AG74" s="12"/>
+      <c r="AH74" s="12"/>
+      <c r="AI74" s="12"/>
+      <c r="AJ74" s="12"/>
+      <c r="AK74" s="12"/>
+      <c r="AL74" s="12"/>
+      <c r="AM74" s="12"/>
+      <c r="AN74" s="13"/>
+    </row>
+    <row r="75" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="3"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
+      <c r="J75" s="4"/>
+      <c r="K75" s="4"/>
+      <c r="L75" s="4"/>
+      <c r="M75" s="4"/>
+      <c r="N75" s="4"/>
+      <c r="O75" s="4"/>
+      <c r="P75" s="4"/>
+      <c r="Q75" s="4"/>
+      <c r="R75" s="4"/>
+      <c r="S75" s="4"/>
+      <c r="T75" s="4"/>
+      <c r="U75" s="4"/>
+      <c r="V75" s="4"/>
+      <c r="W75" s="4"/>
+      <c r="X75" s="4"/>
+      <c r="Y75" s="4"/>
+      <c r="Z75" s="4"/>
+      <c r="AA75" s="4"/>
+      <c r="AB75" s="4"/>
+      <c r="AC75" s="4"/>
+      <c r="AD75" s="4"/>
+      <c r="AE75" s="4"/>
+      <c r="AF75" s="4"/>
+      <c r="AG75" s="4"/>
+      <c r="AH75" s="4"/>
+      <c r="AI75" s="4"/>
+      <c r="AJ75" s="4"/>
+      <c r="AK75" s="4"/>
+      <c r="AL75" s="4"/>
+      <c r="AM75" s="4"/>
+      <c r="AN75" s="5"/>
+    </row>
+    <row r="76" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="6"/>
+      <c r="B76" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
+      <c r="K76" s="4"/>
+      <c r="L76" s="4"/>
+      <c r="M76" s="4"/>
+      <c r="N76" s="4"/>
+      <c r="O76" s="4"/>
+      <c r="P76" s="4"/>
+      <c r="Q76" s="4"/>
+      <c r="R76" s="4"/>
+      <c r="S76" s="4"/>
+      <c r="T76" s="4"/>
+      <c r="U76" s="4"/>
+      <c r="V76" s="4"/>
+      <c r="W76" s="4"/>
+      <c r="X76" s="4"/>
+      <c r="Y76" s="4"/>
+      <c r="Z76" s="4"/>
+      <c r="AA76" s="4"/>
+      <c r="AB76" s="4"/>
+      <c r="AC76" s="4"/>
+      <c r="AD76" s="4"/>
+      <c r="AE76" s="4"/>
+      <c r="AF76" s="4"/>
+      <c r="AG76" s="4"/>
+      <c r="AH76" s="4"/>
+      <c r="AI76" s="4"/>
+      <c r="AJ76" s="4"/>
+      <c r="AK76" s="4"/>
+      <c r="AL76" s="4"/>
+      <c r="AM76" s="5"/>
+      <c r="AN76" s="7"/>
+    </row>
+    <row r="77" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="6"/>
+      <c r="B77" s="6"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="8"/>
+      <c r="J77" s="8"/>
+      <c r="K77" s="8"/>
+      <c r="L77" s="8"/>
+      <c r="M77" s="8"/>
+      <c r="N77" s="8"/>
+      <c r="O77" s="8"/>
+      <c r="P77" s="8"/>
+      <c r="Q77" s="8"/>
+      <c r="R77" s="8"/>
+      <c r="S77" s="8"/>
+      <c r="T77" s="8"/>
+      <c r="U77" s="8"/>
+      <c r="V77" s="8"/>
+      <c r="W77" s="8"/>
+      <c r="X77" s="8"/>
+      <c r="Y77" s="8"/>
+      <c r="Z77" s="8"/>
+      <c r="AA77" s="8"/>
+      <c r="AB77" s="8"/>
+      <c r="AC77" s="8"/>
+      <c r="AD77" s="8"/>
+      <c r="AE77" s="8"/>
+      <c r="AF77" s="8"/>
+      <c r="AG77" s="8"/>
+      <c r="AH77" s="8"/>
+      <c r="AI77" s="8"/>
+      <c r="AJ77" s="8"/>
+      <c r="AK77" s="8"/>
+      <c r="AL77" s="8"/>
+      <c r="AM77" s="7"/>
+      <c r="AN77" s="7"/>
+    </row>
+    <row r="78" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="6"/>
+      <c r="B78" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C78" s="15"/>
+      <c r="D78" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E78" s="17"/>
+      <c r="F78" s="17"/>
+      <c r="G78" s="15"/>
+      <c r="H78" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I78" s="18"/>
+      <c r="J78" s="17"/>
+      <c r="K78" s="19"/>
+      <c r="L78" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="M78" s="17"/>
+      <c r="N78" s="19"/>
+      <c r="O78" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="P78" s="17"/>
+      <c r="Q78" s="17"/>
+      <c r="R78" s="19"/>
+      <c r="S78" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="T78" s="19"/>
+      <c r="U78" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="V78" s="19"/>
+      <c r="W78" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="X78" s="17"/>
+      <c r="Y78" s="17"/>
+      <c r="Z78" s="19"/>
+      <c r="AA78" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB78" s="17"/>
+      <c r="AC78" s="19"/>
+      <c r="AD78" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE78" s="17"/>
+      <c r="AF78" s="17"/>
+      <c r="AG78" s="17"/>
+      <c r="AH78" s="17"/>
+      <c r="AI78" s="17"/>
+      <c r="AJ78" s="17"/>
+      <c r="AK78" s="17"/>
+      <c r="AL78" s="17"/>
+      <c r="AM78" s="20"/>
+      <c r="AN78" s="7"/>
+    </row>
+    <row r="79" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="6"/>
+      <c r="B79" s="14"/>
+      <c r="C79" s="15"/>
+      <c r="D79" s="16"/>
+      <c r="E79" s="17"/>
+      <c r="F79" s="17"/>
+      <c r="G79" s="15"/>
+      <c r="H79" s="16"/>
+      <c r="I79" s="18"/>
+      <c r="J79" s="17"/>
+      <c r="K79" s="19"/>
+      <c r="L79" s="16"/>
+      <c r="M79" s="17"/>
+      <c r="N79" s="19"/>
+      <c r="O79" s="16"/>
+      <c r="P79" s="17"/>
+      <c r="Q79" s="17"/>
+      <c r="R79" s="19"/>
+      <c r="S79" s="16"/>
+      <c r="T79" s="19"/>
+      <c r="U79" s="16"/>
+      <c r="V79" s="19"/>
+      <c r="W79" s="16"/>
+      <c r="X79" s="17"/>
+      <c r="Y79" s="17"/>
+      <c r="Z79" s="19"/>
+      <c r="AA79" s="16"/>
+      <c r="AB79" s="17"/>
+      <c r="AC79" s="19"/>
+      <c r="AD79" s="16"/>
+      <c r="AE79" s="17"/>
+      <c r="AF79" s="17"/>
+      <c r="AG79" s="17"/>
+      <c r="AH79" s="17"/>
+      <c r="AI79" s="17"/>
+      <c r="AJ79" s="17"/>
+      <c r="AK79" s="17"/>
+      <c r="AL79" s="17"/>
+      <c r="AM79" s="20"/>
+      <c r="AN79" s="7"/>
+    </row>
+    <row r="80" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="6"/>
+      <c r="B80" s="14"/>
+      <c r="C80" s="15"/>
+      <c r="D80" s="16"/>
+      <c r="E80" s="17"/>
+      <c r="F80" s="17"/>
+      <c r="G80" s="15"/>
+      <c r="H80" s="16"/>
+      <c r="I80" s="18"/>
+      <c r="J80" s="17"/>
+      <c r="K80" s="19"/>
+      <c r="L80" s="16"/>
+      <c r="M80" s="17"/>
+      <c r="N80" s="19"/>
+      <c r="O80" s="16"/>
+      <c r="P80" s="17"/>
+      <c r="Q80" s="17"/>
+      <c r="R80" s="19"/>
+      <c r="S80" s="16"/>
+      <c r="T80" s="19"/>
+      <c r="U80" s="16"/>
+      <c r="V80" s="19"/>
+      <c r="W80" s="16"/>
+      <c r="X80" s="17"/>
+      <c r="Y80" s="17"/>
+      <c r="Z80" s="19"/>
+      <c r="AA80" s="16"/>
+      <c r="AB80" s="17"/>
+      <c r="AC80" s="19"/>
+      <c r="AD80" s="16"/>
+      <c r="AE80" s="17"/>
+      <c r="AF80" s="17"/>
+      <c r="AG80" s="17"/>
+      <c r="AH80" s="17"/>
+      <c r="AI80" s="17"/>
+      <c r="AJ80" s="17"/>
+      <c r="AK80" s="17"/>
+      <c r="AL80" s="17"/>
+      <c r="AM80" s="20"/>
+      <c r="AN80" s="7"/>
+    </row>
+    <row r="81" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="6"/>
+      <c r="B81" s="14"/>
+      <c r="C81" s="15"/>
+      <c r="D81" s="16"/>
+      <c r="E81" s="17"/>
+      <c r="F81" s="17"/>
+      <c r="G81" s="15"/>
+      <c r="H81" s="16"/>
+      <c r="I81" s="18"/>
+      <c r="J81" s="17"/>
+      <c r="K81" s="19"/>
+      <c r="L81" s="16"/>
+      <c r="M81" s="17"/>
+      <c r="N81" s="19"/>
+      <c r="O81" s="16"/>
+      <c r="P81" s="17"/>
+      <c r="Q81" s="17"/>
+      <c r="R81" s="19"/>
+      <c r="S81" s="16"/>
+      <c r="T81" s="19"/>
+      <c r="U81" s="16"/>
+      <c r="V81" s="19"/>
+      <c r="W81" s="16"/>
+      <c r="X81" s="17"/>
+      <c r="Y81" s="17"/>
+      <c r="Z81" s="19"/>
+      <c r="AA81" s="16"/>
+      <c r="AB81" s="17"/>
+      <c r="AC81" s="19"/>
+      <c r="AD81" s="16"/>
+      <c r="AE81" s="17"/>
+      <c r="AF81" s="17"/>
+      <c r="AG81" s="17"/>
+      <c r="AH81" s="17"/>
+      <c r="AI81" s="17"/>
+      <c r="AJ81" s="17"/>
+      <c r="AK81" s="17"/>
+      <c r="AL81" s="17"/>
+      <c r="AM81" s="20"/>
+      <c r="AN81" s="7"/>
+    </row>
+    <row r="82" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="6"/>
+      <c r="B82" s="14"/>
+      <c r="C82" s="15"/>
+      <c r="D82" s="16"/>
+      <c r="E82" s="17"/>
+      <c r="F82" s="17"/>
+      <c r="G82" s="15"/>
+      <c r="H82" s="16"/>
+      <c r="I82" s="18"/>
+      <c r="J82" s="17"/>
+      <c r="K82" s="19"/>
+      <c r="L82" s="16"/>
+      <c r="M82" s="17"/>
+      <c r="N82" s="19"/>
+      <c r="O82" s="16"/>
+      <c r="P82" s="17"/>
+      <c r="Q82" s="17"/>
+      <c r="R82" s="19"/>
+      <c r="S82" s="16"/>
+      <c r="T82" s="19"/>
+      <c r="U82" s="16"/>
+      <c r="V82" s="19"/>
+      <c r="W82" s="16"/>
+      <c r="X82" s="17"/>
+      <c r="Y82" s="17"/>
+      <c r="Z82" s="19"/>
+      <c r="AA82" s="16"/>
+      <c r="AB82" s="17"/>
+      <c r="AC82" s="19"/>
+      <c r="AD82" s="16"/>
+      <c r="AE82" s="17"/>
+      <c r="AF82" s="17"/>
+      <c r="AG82" s="17"/>
+      <c r="AH82" s="17"/>
+      <c r="AI82" s="17"/>
+      <c r="AJ82" s="17"/>
+      <c r="AK82" s="17"/>
+      <c r="AL82" s="17"/>
+      <c r="AM82" s="20"/>
+      <c r="AN82" s="7"/>
+    </row>
+    <row r="83" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="6"/>
+      <c r="B83" s="14"/>
+      <c r="C83" s="15"/>
+      <c r="D83" s="16"/>
+      <c r="E83" s="17"/>
+      <c r="F83" s="17"/>
+      <c r="G83" s="15"/>
+      <c r="H83" s="16"/>
+      <c r="I83" s="18"/>
+      <c r="J83" s="17"/>
+      <c r="K83" s="19"/>
+      <c r="L83" s="16"/>
+      <c r="M83" s="17"/>
+      <c r="N83" s="19"/>
+      <c r="O83" s="16"/>
+      <c r="P83" s="17"/>
+      <c r="Q83" s="17"/>
+      <c r="R83" s="19"/>
+      <c r="S83" s="16"/>
+      <c r="T83" s="19"/>
+      <c r="U83" s="16"/>
+      <c r="V83" s="19"/>
+      <c r="W83" s="16"/>
+      <c r="X83" s="17"/>
+      <c r="Y83" s="17"/>
+      <c r="Z83" s="19"/>
+      <c r="AA83" s="16"/>
+      <c r="AB83" s="17"/>
+      <c r="AC83" s="19"/>
+      <c r="AD83" s="16"/>
+      <c r="AE83" s="17"/>
+      <c r="AF83" s="17"/>
+      <c r="AG83" s="17"/>
+      <c r="AH83" s="17"/>
+      <c r="AI83" s="17"/>
+      <c r="AJ83" s="17"/>
+      <c r="AK83" s="17"/>
+      <c r="AL83" s="17"/>
+      <c r="AM83" s="20"/>
+      <c r="AN83" s="7"/>
+    </row>
+    <row r="84" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="6"/>
+      <c r="B84" s="14"/>
+      <c r="C84" s="15"/>
+      <c r="D84" s="16"/>
+      <c r="E84" s="17"/>
+      <c r="F84" s="17"/>
+      <c r="G84" s="15"/>
+      <c r="H84" s="16"/>
+      <c r="I84" s="18"/>
+      <c r="J84" s="17"/>
+      <c r="K84" s="19"/>
+      <c r="L84" s="16"/>
+      <c r="M84" s="17"/>
+      <c r="N84" s="19"/>
+      <c r="O84" s="16"/>
+      <c r="P84" s="17"/>
+      <c r="Q84" s="17"/>
+      <c r="R84" s="19"/>
+      <c r="S84" s="16"/>
+      <c r="T84" s="19"/>
+      <c r="U84" s="16"/>
+      <c r="V84" s="19"/>
+      <c r="W84" s="16"/>
+      <c r="X84" s="17"/>
+      <c r="Y84" s="17"/>
+      <c r="Z84" s="19"/>
+      <c r="AA84" s="16"/>
+      <c r="AB84" s="17"/>
+      <c r="AC84" s="19"/>
+      <c r="AD84" s="16"/>
+      <c r="AE84" s="17"/>
+      <c r="AF84" s="17"/>
+      <c r="AG84" s="17"/>
+      <c r="AH84" s="17"/>
+      <c r="AI84" s="17"/>
+      <c r="AJ84" s="17"/>
+      <c r="AK84" s="17"/>
+      <c r="AL84" s="17"/>
+      <c r="AM84" s="20"/>
+      <c r="AN84" s="7"/>
+    </row>
+    <row r="85" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="6"/>
+      <c r="B85" s="14"/>
+      <c r="C85" s="15"/>
+      <c r="D85" s="16"/>
+      <c r="E85" s="17"/>
+      <c r="F85" s="17"/>
+      <c r="G85" s="15"/>
+      <c r="H85" s="16"/>
+      <c r="I85" s="18"/>
+      <c r="J85" s="17"/>
+      <c r="K85" s="19"/>
+      <c r="L85" s="16"/>
+      <c r="M85" s="17"/>
+      <c r="N85" s="19"/>
+      <c r="O85" s="16"/>
+      <c r="P85" s="17"/>
+      <c r="Q85" s="17"/>
+      <c r="R85" s="19"/>
+      <c r="S85" s="16"/>
+      <c r="T85" s="19"/>
+      <c r="U85" s="16"/>
+      <c r="V85" s="19"/>
+      <c r="W85" s="16"/>
+      <c r="X85" s="17"/>
+      <c r="Y85" s="17"/>
+      <c r="Z85" s="19"/>
+      <c r="AA85" s="16"/>
+      <c r="AB85" s="17"/>
+      <c r="AC85" s="19"/>
+      <c r="AD85" s="16"/>
+      <c r="AE85" s="17"/>
+      <c r="AF85" s="17"/>
+      <c r="AG85" s="17"/>
+      <c r="AH85" s="17"/>
+      <c r="AI85" s="17"/>
+      <c r="AJ85" s="17"/>
+      <c r="AK85" s="17"/>
+      <c r="AL85" s="17"/>
+      <c r="AM85" s="20"/>
+      <c r="AN85" s="7"/>
+    </row>
+    <row r="86" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="6"/>
+      <c r="B86" s="14"/>
+      <c r="C86" s="15"/>
+      <c r="D86" s="16"/>
+      <c r="E86" s="17"/>
+      <c r="F86" s="17"/>
+      <c r="G86" s="15"/>
+      <c r="H86" s="16"/>
+      <c r="I86" s="18"/>
+      <c r="J86" s="17"/>
+      <c r="K86" s="19"/>
+      <c r="L86" s="16"/>
+      <c r="M86" s="17"/>
+      <c r="N86" s="19"/>
+      <c r="O86" s="16"/>
+      <c r="P86" s="17"/>
+      <c r="Q86" s="17"/>
+      <c r="R86" s="19"/>
+      <c r="S86" s="16"/>
+      <c r="T86" s="19"/>
+      <c r="U86" s="16"/>
+      <c r="V86" s="19"/>
+      <c r="W86" s="16"/>
+      <c r="X86" s="17"/>
+      <c r="Y86" s="17"/>
+      <c r="Z86" s="19"/>
+      <c r="AA86" s="16"/>
+      <c r="AB86" s="17"/>
+      <c r="AC86" s="19"/>
+      <c r="AD86" s="16"/>
+      <c r="AE86" s="17"/>
+      <c r="AF86" s="17"/>
+      <c r="AG86" s="17"/>
+      <c r="AH86" s="17"/>
+      <c r="AI86" s="17"/>
+      <c r="AJ86" s="17"/>
+      <c r="AK86" s="17"/>
+      <c r="AL86" s="17"/>
+      <c r="AM86" s="20"/>
+      <c r="AN86" s="7"/>
+    </row>
+    <row r="87" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="6"/>
+      <c r="B87" s="14"/>
+      <c r="C87" s="15"/>
+      <c r="D87" s="16"/>
+      <c r="E87" s="17"/>
+      <c r="F87" s="17"/>
+      <c r="G87" s="15"/>
+      <c r="H87" s="16"/>
+      <c r="I87" s="18"/>
+      <c r="J87" s="17"/>
+      <c r="K87" s="19"/>
+      <c r="L87" s="16"/>
+      <c r="M87" s="17"/>
+      <c r="N87" s="19"/>
+      <c r="O87" s="16"/>
+      <c r="P87" s="17"/>
+      <c r="Q87" s="17"/>
+      <c r="R87" s="19"/>
+      <c r="S87" s="16"/>
+      <c r="T87" s="19"/>
+      <c r="U87" s="16"/>
+      <c r="V87" s="19"/>
+      <c r="W87" s="16"/>
+      <c r="X87" s="17"/>
+      <c r="Y87" s="17"/>
+      <c r="Z87" s="19"/>
+      <c r="AA87" s="16"/>
+      <c r="AB87" s="17"/>
+      <c r="AC87" s="19"/>
+      <c r="AD87" s="16"/>
+      <c r="AE87" s="17"/>
+      <c r="AF87" s="17"/>
+      <c r="AG87" s="17"/>
+      <c r="AH87" s="17"/>
+      <c r="AI87" s="17"/>
+      <c r="AJ87" s="17"/>
+      <c r="AK87" s="17"/>
+      <c r="AL87" s="17"/>
+      <c r="AM87" s="20"/>
+      <c r="AN87" s="7"/>
+    </row>
+    <row r="88" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="6"/>
+      <c r="B88" s="14"/>
+      <c r="C88" s="15"/>
+      <c r="D88" s="16"/>
+      <c r="E88" s="17"/>
+      <c r="F88" s="17"/>
+      <c r="G88" s="15"/>
+      <c r="H88" s="16"/>
+      <c r="I88" s="18"/>
+      <c r="J88" s="17"/>
+      <c r="K88" s="19"/>
+      <c r="L88" s="16"/>
+      <c r="M88" s="17"/>
+      <c r="N88" s="19"/>
+      <c r="O88" s="16"/>
+      <c r="P88" s="17"/>
+      <c r="Q88" s="17"/>
+      <c r="R88" s="19"/>
+      <c r="S88" s="16"/>
+      <c r="T88" s="19"/>
+      <c r="U88" s="16"/>
+      <c r="V88" s="19"/>
+      <c r="W88" s="16"/>
+      <c r="X88" s="17"/>
+      <c r="Y88" s="17"/>
+      <c r="Z88" s="19"/>
+      <c r="AA88" s="16"/>
+      <c r="AB88" s="17"/>
+      <c r="AC88" s="19"/>
+      <c r="AD88" s="16"/>
+      <c r="AE88" s="17"/>
+      <c r="AF88" s="17"/>
+      <c r="AG88" s="17"/>
+      <c r="AH88" s="17"/>
+      <c r="AI88" s="17"/>
+      <c r="AJ88" s="17"/>
+      <c r="AK88" s="17"/>
+      <c r="AL88" s="17"/>
+      <c r="AM88" s="20"/>
+      <c r="AN88" s="7"/>
+    </row>
+    <row r="89" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="6"/>
+      <c r="B89" s="14"/>
+      <c r="C89" s="15"/>
+      <c r="D89" s="16"/>
+      <c r="E89" s="17"/>
+      <c r="F89" s="17"/>
+      <c r="G89" s="15"/>
+      <c r="H89" s="16"/>
+      <c r="I89" s="18"/>
+      <c r="J89" s="17"/>
+      <c r="K89" s="19"/>
+      <c r="L89" s="16"/>
+      <c r="M89" s="17"/>
+      <c r="N89" s="19"/>
+      <c r="O89" s="16"/>
+      <c r="P89" s="17"/>
+      <c r="Q89" s="17"/>
+      <c r="R89" s="19"/>
+      <c r="S89" s="16"/>
+      <c r="T89" s="19"/>
+      <c r="U89" s="16"/>
+      <c r="V89" s="19"/>
+      <c r="W89" s="16"/>
+      <c r="X89" s="17"/>
+      <c r="Y89" s="17"/>
+      <c r="Z89" s="19"/>
+      <c r="AA89" s="16"/>
+      <c r="AB89" s="17"/>
+      <c r="AC89" s="19"/>
+      <c r="AD89" s="16"/>
+      <c r="AE89" s="17"/>
+      <c r="AF89" s="17"/>
+      <c r="AG89" s="17"/>
+      <c r="AH89" s="17"/>
+      <c r="AI89" s="17"/>
+      <c r="AJ89" s="17"/>
+      <c r="AK89" s="17"/>
+      <c r="AL89" s="17"/>
+      <c r="AM89" s="20"/>
+      <c r="AN89" s="7"/>
+    </row>
+    <row r="90" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="6"/>
+      <c r="B90" s="14"/>
+      <c r="C90" s="15"/>
+      <c r="D90" s="16"/>
+      <c r="E90" s="17"/>
+      <c r="F90" s="17"/>
+      <c r="G90" s="15"/>
+      <c r="H90" s="16"/>
+      <c r="I90" s="18"/>
+      <c r="J90" s="17"/>
+      <c r="K90" s="19"/>
+      <c r="L90" s="16"/>
+      <c r="M90" s="17"/>
+      <c r="N90" s="19"/>
+      <c r="O90" s="16"/>
+      <c r="P90" s="17"/>
+      <c r="Q90" s="17"/>
+      <c r="R90" s="19"/>
+      <c r="S90" s="16"/>
+      <c r="T90" s="19"/>
+      <c r="U90" s="16"/>
+      <c r="V90" s="19"/>
+      <c r="W90" s="16"/>
+      <c r="X90" s="17"/>
+      <c r="Y90" s="17"/>
+      <c r="Z90" s="19"/>
+      <c r="AA90" s="16"/>
+      <c r="AB90" s="17"/>
+      <c r="AC90" s="19"/>
+      <c r="AD90" s="16"/>
+      <c r="AE90" s="17"/>
+      <c r="AF90" s="17"/>
+      <c r="AG90" s="17"/>
+      <c r="AH90" s="17"/>
+      <c r="AI90" s="17"/>
+      <c r="AJ90" s="17"/>
+      <c r="AK90" s="17"/>
+      <c r="AL90" s="17"/>
+      <c r="AM90" s="20"/>
+      <c r="AN90" s="7"/>
+    </row>
+    <row r="91" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="6"/>
+      <c r="B91" s="14"/>
+      <c r="C91" s="15"/>
+      <c r="D91" s="16"/>
+      <c r="E91" s="17"/>
+      <c r="F91" s="17"/>
+      <c r="G91" s="15"/>
+      <c r="H91" s="16"/>
+      <c r="I91" s="18"/>
+      <c r="J91" s="17"/>
+      <c r="K91" s="19"/>
+      <c r="L91" s="16"/>
+      <c r="M91" s="17"/>
+      <c r="N91" s="19"/>
+      <c r="O91" s="16"/>
+      <c r="P91" s="17"/>
+      <c r="Q91" s="17"/>
+      <c r="R91" s="19"/>
+      <c r="S91" s="16"/>
+      <c r="T91" s="19"/>
+      <c r="U91" s="16"/>
+      <c r="V91" s="19"/>
+      <c r="W91" s="16"/>
+      <c r="X91" s="17"/>
+      <c r="Y91" s="17"/>
+      <c r="Z91" s="19"/>
+      <c r="AA91" s="16"/>
+      <c r="AB91" s="17"/>
+      <c r="AC91" s="19"/>
+      <c r="AD91" s="16"/>
+      <c r="AE91" s="17"/>
+      <c r="AF91" s="17"/>
+      <c r="AG91" s="17"/>
+      <c r="AH91" s="17"/>
+      <c r="AI91" s="17"/>
+      <c r="AJ91" s="17"/>
+      <c r="AK91" s="17"/>
+      <c r="AL91" s="17"/>
+      <c r="AM91" s="20"/>
+      <c r="AN91" s="7"/>
+    </row>
+    <row r="92" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="6"/>
+      <c r="B92" s="14"/>
+      <c r="C92" s="15"/>
+      <c r="D92" s="16"/>
+      <c r="E92" s="17"/>
+      <c r="F92" s="17"/>
+      <c r="G92" s="15"/>
+      <c r="H92" s="16"/>
+      <c r="I92" s="18"/>
+      <c r="J92" s="17"/>
+      <c r="K92" s="19"/>
+      <c r="L92" s="16"/>
+      <c r="M92" s="17"/>
+      <c r="N92" s="19"/>
+      <c r="O92" s="16"/>
+      <c r="P92" s="17"/>
+      <c r="Q92" s="17"/>
+      <c r="R92" s="19"/>
+      <c r="S92" s="16"/>
+      <c r="T92" s="19"/>
+      <c r="U92" s="16"/>
+      <c r="V92" s="19"/>
+      <c r="W92" s="16"/>
+      <c r="X92" s="17"/>
+      <c r="Y92" s="17"/>
+      <c r="Z92" s="19"/>
+      <c r="AA92" s="16"/>
+      <c r="AB92" s="17"/>
+      <c r="AC92" s="19"/>
+      <c r="AD92" s="16"/>
+      <c r="AE92" s="17"/>
+      <c r="AF92" s="17"/>
+      <c r="AG92" s="17"/>
+      <c r="AH92" s="17"/>
+      <c r="AI92" s="17"/>
+      <c r="AJ92" s="17"/>
+      <c r="AK92" s="17"/>
+      <c r="AL92" s="17"/>
+      <c r="AM92" s="20"/>
+      <c r="AN92" s="7"/>
+    </row>
+    <row r="93" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="6"/>
+      <c r="B93" s="14"/>
+      <c r="C93" s="15"/>
+      <c r="D93" s="16"/>
+      <c r="E93" s="17"/>
+      <c r="F93" s="17"/>
+      <c r="G93" s="15"/>
+      <c r="H93" s="16"/>
+      <c r="I93" s="18"/>
+      <c r="J93" s="17"/>
+      <c r="K93" s="19"/>
+      <c r="L93" s="16"/>
+      <c r="M93" s="17"/>
+      <c r="N93" s="19"/>
+      <c r="O93" s="16"/>
+      <c r="P93" s="17"/>
+      <c r="Q93" s="17"/>
+      <c r="R93" s="19"/>
+      <c r="S93" s="16"/>
+      <c r="T93" s="19"/>
+      <c r="U93" s="16"/>
+      <c r="V93" s="19"/>
+      <c r="W93" s="16"/>
+      <c r="X93" s="17"/>
+      <c r="Y93" s="17"/>
+      <c r="Z93" s="19"/>
+      <c r="AA93" s="16"/>
+      <c r="AB93" s="17"/>
+      <c r="AC93" s="19"/>
+      <c r="AD93" s="16"/>
+      <c r="AE93" s="17"/>
+      <c r="AF93" s="17"/>
+      <c r="AG93" s="17"/>
+      <c r="AH93" s="17"/>
+      <c r="AI93" s="17"/>
+      <c r="AJ93" s="17"/>
+      <c r="AK93" s="17"/>
+      <c r="AL93" s="17"/>
+      <c r="AM93" s="20"/>
+      <c r="AN93" s="7"/>
+    </row>
+    <row r="94" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="6"/>
+      <c r="B94" s="14"/>
+      <c r="C94" s="15"/>
+      <c r="D94" s="16"/>
+      <c r="E94" s="17"/>
+      <c r="F94" s="17"/>
+      <c r="G94" s="15"/>
+      <c r="H94" s="16"/>
+      <c r="I94" s="18"/>
+      <c r="J94" s="17"/>
+      <c r="K94" s="19"/>
+      <c r="L94" s="16"/>
+      <c r="M94" s="17"/>
+      <c r="N94" s="19"/>
+      <c r="O94" s="16"/>
+      <c r="P94" s="17"/>
+      <c r="Q94" s="17"/>
+      <c r="R94" s="19"/>
+      <c r="S94" s="16"/>
+      <c r="T94" s="19"/>
+      <c r="U94" s="16"/>
+      <c r="V94" s="19"/>
+      <c r="W94" s="16"/>
+      <c r="X94" s="17"/>
+      <c r="Y94" s="17"/>
+      <c r="Z94" s="19"/>
+      <c r="AA94" s="16"/>
+      <c r="AB94" s="17"/>
+      <c r="AC94" s="19"/>
+      <c r="AD94" s="16"/>
+      <c r="AE94" s="17"/>
+      <c r="AF94" s="17"/>
+      <c r="AG94" s="17"/>
+      <c r="AH94" s="17"/>
+      <c r="AI94" s="17"/>
+      <c r="AJ94" s="17"/>
+      <c r="AK94" s="17"/>
+      <c r="AL94" s="17"/>
+      <c r="AM94" s="20"/>
+      <c r="AN94" s="7"/>
+    </row>
+    <row r="95" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="6"/>
+      <c r="B95" s="14"/>
+      <c r="C95" s="15"/>
+      <c r="D95" s="16"/>
+      <c r="E95" s="17"/>
+      <c r="F95" s="17"/>
+      <c r="G95" s="15"/>
+      <c r="H95" s="16"/>
+      <c r="I95" s="18"/>
+      <c r="J95" s="17"/>
+      <c r="K95" s="19"/>
+      <c r="L95" s="16"/>
+      <c r="M95" s="17"/>
+      <c r="N95" s="19"/>
+      <c r="O95" s="16"/>
+      <c r="P95" s="17"/>
+      <c r="Q95" s="17"/>
+      <c r="R95" s="19"/>
+      <c r="S95" s="16"/>
+      <c r="T95" s="19"/>
+      <c r="U95" s="16"/>
+      <c r="V95" s="19"/>
+      <c r="W95" s="16"/>
+      <c r="X95" s="17"/>
+      <c r="Y95" s="17"/>
+      <c r="Z95" s="19"/>
+      <c r="AA95" s="16"/>
+      <c r="AB95" s="17"/>
+      <c r="AC95" s="19"/>
+      <c r="AD95" s="16"/>
+      <c r="AE95" s="17"/>
+      <c r="AF95" s="17"/>
+      <c r="AG95" s="17"/>
+      <c r="AH95" s="17"/>
+      <c r="AI95" s="17"/>
+      <c r="AJ95" s="17"/>
+      <c r="AK95" s="17"/>
+      <c r="AL95" s="17"/>
+      <c r="AM95" s="20"/>
+      <c r="AN95" s="7"/>
+    </row>
+    <row r="96" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="6"/>
+      <c r="B96" s="14"/>
+      <c r="C96" s="15"/>
+      <c r="D96" s="16"/>
+      <c r="E96" s="17"/>
+      <c r="F96" s="17"/>
+      <c r="G96" s="15"/>
+      <c r="H96" s="16"/>
+      <c r="I96" s="18"/>
+      <c r="J96" s="17"/>
+      <c r="K96" s="19"/>
+      <c r="L96" s="16"/>
+      <c r="M96" s="17"/>
+      <c r="N96" s="19"/>
+      <c r="O96" s="16"/>
+      <c r="P96" s="17"/>
+      <c r="Q96" s="17"/>
+      <c r="R96" s="19"/>
+      <c r="S96" s="16"/>
+      <c r="T96" s="19"/>
+      <c r="U96" s="16"/>
+      <c r="V96" s="19"/>
+      <c r="W96" s="16"/>
+      <c r="X96" s="17"/>
+      <c r="Y96" s="17"/>
+      <c r="Z96" s="19"/>
+      <c r="AA96" s="16"/>
+      <c r="AB96" s="17"/>
+      <c r="AC96" s="19"/>
+      <c r="AD96" s="16"/>
+      <c r="AE96" s="17"/>
+      <c r="AF96" s="17"/>
+      <c r="AG96" s="17"/>
+      <c r="AH96" s="17"/>
+      <c r="AI96" s="17"/>
+      <c r="AJ96" s="17"/>
+      <c r="AK96" s="17"/>
+      <c r="AL96" s="17"/>
+      <c r="AM96" s="20"/>
+      <c r="AN96" s="7"/>
+    </row>
+    <row r="97" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="6"/>
+      <c r="B97" s="14"/>
+      <c r="C97" s="15"/>
+      <c r="D97" s="16"/>
+      <c r="E97" s="17"/>
+      <c r="F97" s="17"/>
+      <c r="G97" s="15"/>
+      <c r="H97" s="16"/>
+      <c r="I97" s="18"/>
+      <c r="J97" s="17"/>
+      <c r="K97" s="19"/>
+      <c r="L97" s="16"/>
+      <c r="M97" s="17"/>
+      <c r="N97" s="19"/>
+      <c r="O97" s="16"/>
+      <c r="P97" s="17"/>
+      <c r="Q97" s="17"/>
+      <c r="R97" s="19"/>
+      <c r="S97" s="16"/>
+      <c r="T97" s="19"/>
+      <c r="U97" s="16"/>
+      <c r="V97" s="19"/>
+      <c r="W97" s="16"/>
+      <c r="X97" s="17"/>
+      <c r="Y97" s="17"/>
+      <c r="Z97" s="19"/>
+      <c r="AA97" s="16"/>
+      <c r="AB97" s="17"/>
+      <c r="AC97" s="19"/>
+      <c r="AD97" s="16"/>
+      <c r="AE97" s="17"/>
+      <c r="AF97" s="17"/>
+      <c r="AG97" s="17"/>
+      <c r="AH97" s="17"/>
+      <c r="AI97" s="17"/>
+      <c r="AJ97" s="17"/>
+      <c r="AK97" s="17"/>
+      <c r="AL97" s="17"/>
+      <c r="AM97" s="20"/>
+      <c r="AN97" s="7"/>
+    </row>
+    <row r="98" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="6"/>
+      <c r="B98" s="14"/>
+      <c r="C98" s="15"/>
+      <c r="D98" s="16"/>
+      <c r="E98" s="17"/>
+      <c r="F98" s="17"/>
+      <c r="G98" s="15"/>
+      <c r="H98" s="16"/>
+      <c r="I98" s="18"/>
+      <c r="J98" s="17"/>
+      <c r="K98" s="19"/>
+      <c r="L98" s="16"/>
+      <c r="M98" s="17"/>
+      <c r="N98" s="19"/>
+      <c r="O98" s="16"/>
+      <c r="P98" s="17"/>
+      <c r="Q98" s="17"/>
+      <c r="R98" s="19"/>
+      <c r="S98" s="16"/>
+      <c r="T98" s="19"/>
+      <c r="U98" s="16"/>
+      <c r="V98" s="19"/>
+      <c r="W98" s="16"/>
+      <c r="X98" s="17"/>
+      <c r="Y98" s="17"/>
+      <c r="Z98" s="19"/>
+      <c r="AA98" s="16"/>
+      <c r="AB98" s="17"/>
+      <c r="AC98" s="19"/>
+      <c r="AD98" s="16"/>
+      <c r="AE98" s="17"/>
+      <c r="AF98" s="17"/>
+      <c r="AG98" s="17"/>
+      <c r="AH98" s="17"/>
+      <c r="AI98" s="17"/>
+      <c r="AJ98" s="17"/>
+      <c r="AK98" s="17"/>
+      <c r="AL98" s="17"/>
+      <c r="AM98" s="20"/>
+      <c r="AN98" s="7"/>
+    </row>
+    <row r="99" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="6"/>
+      <c r="B99" s="14"/>
+      <c r="C99" s="15"/>
+      <c r="D99" s="16"/>
+      <c r="E99" s="17"/>
+      <c r="F99" s="17"/>
+      <c r="G99" s="15"/>
+      <c r="H99" s="16"/>
+      <c r="I99" s="18"/>
+      <c r="J99" s="17"/>
+      <c r="K99" s="19"/>
+      <c r="L99" s="16"/>
+      <c r="M99" s="17"/>
+      <c r="N99" s="19"/>
+      <c r="O99" s="16"/>
+      <c r="P99" s="17"/>
+      <c r="Q99" s="17"/>
+      <c r="R99" s="19"/>
+      <c r="S99" s="16"/>
+      <c r="T99" s="19"/>
+      <c r="U99" s="16"/>
+      <c r="V99" s="19"/>
+      <c r="W99" s="16"/>
+      <c r="X99" s="17"/>
+      <c r="Y99" s="17"/>
+      <c r="Z99" s="19"/>
+      <c r="AA99" s="16"/>
+      <c r="AB99" s="17"/>
+      <c r="AC99" s="19"/>
+      <c r="AD99" s="16"/>
+      <c r="AE99" s="17"/>
+      <c r="AF99" s="17"/>
+      <c r="AG99" s="17"/>
+      <c r="AH99" s="17"/>
+      <c r="AI99" s="17"/>
+      <c r="AJ99" s="17"/>
+      <c r="AK99" s="17"/>
+      <c r="AL99" s="17"/>
+      <c r="AM99" s="20"/>
+      <c r="AN99" s="7"/>
+    </row>
+    <row r="100" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="6"/>
+      <c r="B100" s="14"/>
+      <c r="C100" s="15"/>
+      <c r="D100" s="16"/>
+      <c r="E100" s="17"/>
+      <c r="F100" s="17"/>
+      <c r="G100" s="15"/>
+      <c r="H100" s="16"/>
+      <c r="I100" s="18"/>
+      <c r="J100" s="17"/>
+      <c r="K100" s="19"/>
+      <c r="L100" s="16"/>
+      <c r="M100" s="17"/>
+      <c r="N100" s="19"/>
+      <c r="O100" s="16"/>
+      <c r="P100" s="17"/>
+      <c r="Q100" s="17"/>
+      <c r="R100" s="19"/>
+      <c r="S100" s="16"/>
+      <c r="T100" s="19"/>
+      <c r="U100" s="16"/>
+      <c r="V100" s="19"/>
+      <c r="W100" s="16"/>
+      <c r="X100" s="17"/>
+      <c r="Y100" s="17"/>
+      <c r="Z100" s="19"/>
+      <c r="AA100" s="16"/>
+      <c r="AB100" s="17"/>
+      <c r="AC100" s="19"/>
+      <c r="AD100" s="16"/>
+      <c r="AE100" s="17"/>
+      <c r="AF100" s="17"/>
+      <c r="AG100" s="17"/>
+      <c r="AH100" s="17"/>
+      <c r="AI100" s="17"/>
+      <c r="AJ100" s="17"/>
+      <c r="AK100" s="17"/>
+      <c r="AL100" s="17"/>
+      <c r="AM100" s="20"/>
+      <c r="AN100" s="7"/>
+    </row>
+    <row r="101" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="6"/>
+      <c r="B101" s="14"/>
+      <c r="C101" s="15"/>
+      <c r="D101" s="16"/>
+      <c r="E101" s="17"/>
+      <c r="F101" s="17"/>
+      <c r="G101" s="15"/>
+      <c r="H101" s="16"/>
+      <c r="I101" s="18"/>
+      <c r="J101" s="17"/>
+      <c r="K101" s="19"/>
+      <c r="L101" s="16"/>
+      <c r="M101" s="17"/>
+      <c r="N101" s="19"/>
+      <c r="O101" s="16"/>
+      <c r="P101" s="17"/>
+      <c r="Q101" s="17"/>
+      <c r="R101" s="19"/>
+      <c r="S101" s="16"/>
+      <c r="T101" s="19"/>
+      <c r="U101" s="16"/>
+      <c r="V101" s="19"/>
+      <c r="W101" s="16"/>
+      <c r="X101" s="17"/>
+      <c r="Y101" s="17"/>
+      <c r="Z101" s="19"/>
+      <c r="AA101" s="16"/>
+      <c r="AB101" s="17"/>
+      <c r="AC101" s="19"/>
+      <c r="AD101" s="16"/>
+      <c r="AE101" s="17"/>
+      <c r="AF101" s="17"/>
+      <c r="AG101" s="17"/>
+      <c r="AH101" s="17"/>
+      <c r="AI101" s="17"/>
+      <c r="AJ101" s="17"/>
+      <c r="AK101" s="17"/>
+      <c r="AL101" s="17"/>
+      <c r="AM101" s="20"/>
+      <c r="AN101" s="7"/>
+    </row>
+    <row r="102" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="6"/>
+      <c r="B102" s="14"/>
+      <c r="C102" s="15"/>
+      <c r="D102" s="16"/>
+      <c r="E102" s="17"/>
+      <c r="F102" s="17"/>
+      <c r="G102" s="15"/>
+      <c r="H102" s="16"/>
+      <c r="I102" s="18"/>
+      <c r="J102" s="17"/>
+      <c r="K102" s="19"/>
+      <c r="L102" s="16"/>
+      <c r="M102" s="17"/>
+      <c r="N102" s="19"/>
+      <c r="O102" s="16"/>
+      <c r="P102" s="17"/>
+      <c r="Q102" s="17"/>
+      <c r="R102" s="19"/>
+      <c r="S102" s="16"/>
+      <c r="T102" s="19"/>
+      <c r="U102" s="16"/>
+      <c r="V102" s="19"/>
+      <c r="W102" s="16"/>
+      <c r="X102" s="17"/>
+      <c r="Y102" s="17"/>
+      <c r="Z102" s="19"/>
+      <c r="AA102" s="16"/>
+      <c r="AB102" s="17"/>
+      <c r="AC102" s="19"/>
+      <c r="AD102" s="16"/>
+      <c r="AE102" s="17"/>
+      <c r="AF102" s="17"/>
+      <c r="AG102" s="17"/>
+      <c r="AH102" s="17"/>
+      <c r="AI102" s="17"/>
+      <c r="AJ102" s="17"/>
+      <c r="AK102" s="17"/>
+      <c r="AL102" s="17"/>
+      <c r="AM102" s="20"/>
+      <c r="AN102" s="7"/>
+    </row>
+    <row r="103" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="6"/>
+      <c r="B103" s="14"/>
+      <c r="C103" s="15"/>
+      <c r="D103" s="16"/>
+      <c r="E103" s="17"/>
+      <c r="F103" s="17"/>
+      <c r="G103" s="15"/>
+      <c r="H103" s="16"/>
+      <c r="I103" s="18"/>
+      <c r="J103" s="17"/>
+      <c r="K103" s="19"/>
+      <c r="L103" s="16"/>
+      <c r="M103" s="17"/>
+      <c r="N103" s="19"/>
+      <c r="O103" s="16"/>
+      <c r="P103" s="17"/>
+      <c r="Q103" s="17"/>
+      <c r="R103" s="19"/>
+      <c r="S103" s="16"/>
+      <c r="T103" s="19"/>
+      <c r="U103" s="16"/>
+      <c r="V103" s="19"/>
+      <c r="W103" s="16"/>
+      <c r="X103" s="17"/>
+      <c r="Y103" s="17"/>
+      <c r="Z103" s="19"/>
+      <c r="AA103" s="16"/>
+      <c r="AB103" s="17"/>
+      <c r="AC103" s="19"/>
+      <c r="AD103" s="16"/>
+      <c r="AE103" s="17"/>
+      <c r="AF103" s="17"/>
+      <c r="AG103" s="17"/>
+      <c r="AH103" s="17"/>
+      <c r="AI103" s="17"/>
+      <c r="AJ103" s="17"/>
+      <c r="AK103" s="17"/>
+      <c r="AL103" s="17"/>
+      <c r="AM103" s="20"/>
+      <c r="AN103" s="7"/>
+    </row>
+    <row r="104" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="6"/>
+      <c r="B104" s="14"/>
+      <c r="C104" s="15"/>
+      <c r="D104" s="16"/>
+      <c r="E104" s="17"/>
+      <c r="F104" s="17"/>
+      <c r="G104" s="15"/>
+      <c r="H104" s="16"/>
+      <c r="I104" s="18"/>
+      <c r="J104" s="17"/>
+      <c r="K104" s="19"/>
+      <c r="L104" s="16"/>
+      <c r="M104" s="17"/>
+      <c r="N104" s="19"/>
+      <c r="O104" s="16"/>
+      <c r="P104" s="17"/>
+      <c r="Q104" s="17"/>
+      <c r="R104" s="19"/>
+      <c r="S104" s="16"/>
+      <c r="T104" s="19"/>
+      <c r="U104" s="16"/>
+      <c r="V104" s="19"/>
+      <c r="W104" s="16"/>
+      <c r="X104" s="17"/>
+      <c r="Y104" s="17"/>
+      <c r="Z104" s="19"/>
+      <c r="AA104" s="16"/>
+      <c r="AB104" s="17"/>
+      <c r="AC104" s="19"/>
+      <c r="AD104" s="16"/>
+      <c r="AE104" s="17"/>
+      <c r="AF104" s="17"/>
+      <c r="AG104" s="17"/>
+      <c r="AH104" s="17"/>
+      <c r="AI104" s="17"/>
+      <c r="AJ104" s="17"/>
+      <c r="AK104" s="17"/>
+      <c r="AL104" s="17"/>
+      <c r="AM104" s="20"/>
+      <c r="AN104" s="7"/>
+    </row>
+    <row r="105" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="6"/>
+      <c r="B105" s="14"/>
+      <c r="C105" s="15"/>
+      <c r="D105" s="16"/>
+      <c r="E105" s="17"/>
+      <c r="F105" s="17"/>
+      <c r="G105" s="15"/>
+      <c r="H105" s="16"/>
+      <c r="I105" s="18"/>
+      <c r="J105" s="17"/>
+      <c r="K105" s="19"/>
+      <c r="L105" s="16"/>
+      <c r="M105" s="17"/>
+      <c r="N105" s="19"/>
+      <c r="O105" s="16"/>
+      <c r="P105" s="17"/>
+      <c r="Q105" s="17"/>
+      <c r="R105" s="19"/>
+      <c r="S105" s="16"/>
+      <c r="T105" s="19"/>
+      <c r="U105" s="16"/>
+      <c r="V105" s="19"/>
+      <c r="W105" s="16"/>
+      <c r="X105" s="17"/>
+      <c r="Y105" s="17"/>
+      <c r="Z105" s="19"/>
+      <c r="AA105" s="16"/>
+      <c r="AB105" s="17"/>
+      <c r="AC105" s="19"/>
+      <c r="AD105" s="16"/>
+      <c r="AE105" s="17"/>
+      <c r="AF105" s="17"/>
+      <c r="AG105" s="17"/>
+      <c r="AH105" s="17"/>
+      <c r="AI105" s="17"/>
+      <c r="AJ105" s="17"/>
+      <c r="AK105" s="17"/>
+      <c r="AL105" s="17"/>
+      <c r="AM105" s="20"/>
+      <c r="AN105" s="7"/>
+    </row>
+    <row r="106" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="6"/>
+      <c r="B106" s="14"/>
+      <c r="C106" s="15"/>
+      <c r="D106" s="16"/>
+      <c r="E106" s="17"/>
+      <c r="F106" s="17"/>
+      <c r="G106" s="15"/>
+      <c r="H106" s="16"/>
+      <c r="I106" s="18"/>
+      <c r="J106" s="17"/>
+      <c r="K106" s="19"/>
+      <c r="L106" s="16"/>
+      <c r="M106" s="17"/>
+      <c r="N106" s="19"/>
+      <c r="O106" s="16"/>
+      <c r="P106" s="17"/>
+      <c r="Q106" s="17"/>
+      <c r="R106" s="19"/>
+      <c r="S106" s="16"/>
+      <c r="T106" s="19"/>
+      <c r="U106" s="16"/>
+      <c r="V106" s="19"/>
+      <c r="W106" s="16"/>
+      <c r="X106" s="17"/>
+      <c r="Y106" s="17"/>
+      <c r="Z106" s="19"/>
+      <c r="AA106" s="16"/>
+      <c r="AB106" s="17"/>
+      <c r="AC106" s="19"/>
+      <c r="AD106" s="16"/>
+      <c r="AE106" s="17"/>
+      <c r="AF106" s="17"/>
+      <c r="AG106" s="17"/>
+      <c r="AH106" s="17"/>
+      <c r="AI106" s="17"/>
+      <c r="AJ106" s="17"/>
+      <c r="AK106" s="17"/>
+      <c r="AL106" s="17"/>
+      <c r="AM106" s="20"/>
+      <c r="AN106" s="7"/>
+    </row>
+    <row r="107" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="6"/>
+      <c r="B107" s="14"/>
+      <c r="C107" s="15"/>
+      <c r="D107" s="16"/>
+      <c r="E107" s="17"/>
+      <c r="F107" s="17"/>
+      <c r="G107" s="15"/>
+      <c r="H107" s="16"/>
+      <c r="I107" s="18"/>
+      <c r="J107" s="17"/>
+      <c r="K107" s="19"/>
+      <c r="L107" s="16"/>
+      <c r="M107" s="17"/>
+      <c r="N107" s="19"/>
+      <c r="O107" s="16"/>
+      <c r="P107" s="17"/>
+      <c r="Q107" s="17"/>
+      <c r="R107" s="19"/>
+      <c r="S107" s="16"/>
+      <c r="T107" s="19"/>
+      <c r="U107" s="16"/>
+      <c r="V107" s="19"/>
+      <c r="W107" s="16"/>
+      <c r="X107" s="17"/>
+      <c r="Y107" s="17"/>
+      <c r="Z107" s="19"/>
+      <c r="AA107" s="16"/>
+      <c r="AB107" s="17"/>
+      <c r="AC107" s="19"/>
+      <c r="AD107" s="16"/>
+      <c r="AE107" s="17"/>
+      <c r="AF107" s="17"/>
+      <c r="AG107" s="17"/>
+      <c r="AH107" s="17"/>
+      <c r="AI107" s="17"/>
+      <c r="AJ107" s="17"/>
+      <c r="AK107" s="17"/>
+      <c r="AL107" s="17"/>
+      <c r="AM107" s="20"/>
+      <c r="AN107" s="7"/>
+    </row>
+    <row r="108" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A108" s="6"/>
+      <c r="B108" s="14"/>
+      <c r="C108" s="15"/>
+      <c r="D108" s="16"/>
+      <c r="E108" s="17"/>
+      <c r="F108" s="17"/>
+      <c r="G108" s="15"/>
+      <c r="H108" s="16"/>
+      <c r="I108" s="18"/>
+      <c r="J108" s="17"/>
+      <c r="K108" s="19"/>
+      <c r="L108" s="16"/>
+      <c r="M108" s="17"/>
+      <c r="N108" s="19"/>
+      <c r="O108" s="16"/>
+      <c r="P108" s="17"/>
+      <c r="Q108" s="17"/>
+      <c r="R108" s="19"/>
+      <c r="S108" s="16"/>
+      <c r="T108" s="19"/>
+      <c r="U108" s="16"/>
+      <c r="V108" s="19"/>
+      <c r="W108" s="16"/>
+      <c r="X108" s="17"/>
+      <c r="Y108" s="17"/>
+      <c r="Z108" s="19"/>
+      <c r="AA108" s="16"/>
+      <c r="AB108" s="17"/>
+      <c r="AC108" s="19"/>
+      <c r="AD108" s="16"/>
+      <c r="AE108" s="17"/>
+      <c r="AF108" s="17"/>
+      <c r="AG108" s="17"/>
+      <c r="AH108" s="17"/>
+      <c r="AI108" s="17"/>
+      <c r="AJ108" s="17"/>
+      <c r="AK108" s="17"/>
+      <c r="AL108" s="17"/>
+      <c r="AM108" s="20"/>
+      <c r="AN108" s="7"/>
+    </row>
+    <row r="109" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A109" s="11"/>
+      <c r="B109" s="12"/>
+      <c r="C109" s="12"/>
+      <c r="D109" s="12"/>
+      <c r="E109" s="12"/>
+      <c r="F109" s="12"/>
+      <c r="G109" s="12"/>
+      <c r="H109" s="12"/>
+      <c r="I109" s="12"/>
+      <c r="J109" s="12"/>
+      <c r="K109" s="12"/>
+      <c r="L109" s="12"/>
+      <c r="M109" s="12"/>
+      <c r="N109" s="12"/>
+      <c r="O109" s="12"/>
+      <c r="P109" s="12"/>
+      <c r="Q109" s="12"/>
+      <c r="R109" s="12"/>
+      <c r="S109" s="12"/>
+      <c r="T109" s="12"/>
+      <c r="U109" s="12"/>
+      <c r="V109" s="12"/>
+      <c r="W109" s="12"/>
+      <c r="X109" s="12"/>
+      <c r="Y109" s="12"/>
+      <c r="Z109" s="12"/>
+      <c r="AA109" s="12"/>
+      <c r="AB109" s="12"/>
+      <c r="AC109" s="12"/>
+      <c r="AD109" s="12"/>
+      <c r="AE109" s="12"/>
+      <c r="AF109" s="12"/>
+      <c r="AG109" s="12"/>
+      <c r="AH109" s="12"/>
+      <c r="AI109" s="12"/>
+      <c r="AJ109" s="12"/>
+      <c r="AK109" s="12"/>
+      <c r="AL109" s="12"/>
+      <c r="AM109" s="12"/>
+      <c r="AN109" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="AH1:AN1"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH2:AN2"/>
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:AN3"/>
+  </mergeCells>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
+  <pageSetup paperSize="9" scale="95" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;C&amp;8&amp;P／&amp;"／,標準"&amp;N</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>